--- a/JupyterNotebooks/AvgHW/GossA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,40 +653,40 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000043567992868</v>
+        <v>0.9999346472413927</v>
       </c>
       <c r="D3">
+        <v>0.9999869315128047</v>
+      </c>
+      <c r="E3">
+        <v>1.000043567992867</v>
+      </c>
+      <c r="F3">
+        <v>1.000016338583803</v>
+      </c>
+      <c r="G3">
         <v>0.9999346472413927</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>0.999985958513506</v>
+      </c>
+      <c r="I3">
+        <v>1.00002425914719</v>
+      </c>
+      <c r="J3">
+        <v>1.000043567992867</v>
+      </c>
+      <c r="K3">
+        <v>1.000043567992867</v>
+      </c>
+      <c r="L3">
+        <v>0.9999575093749052</v>
+      </c>
+      <c r="M3">
         <v>1.000016338583803</v>
       </c>
-      <c r="F3">
-        <v>1.000043567992868</v>
-      </c>
-      <c r="G3">
-        <v>0.999985958513506</v>
-      </c>
-      <c r="H3">
-        <v>1.00002425914719</v>
-      </c>
-      <c r="I3">
-        <v>1.000043567992868</v>
-      </c>
-      <c r="J3">
-        <v>0.9999346472413927</v>
-      </c>
-      <c r="K3">
-        <v>0.9999869315128047</v>
-      </c>
-      <c r="L3">
-        <v>1.000016338583803</v>
-      </c>
-      <c r="M3">
-        <v>0.9999575093749052</v>
-      </c>
       <c r="N3">
-        <v>1.000043567992868</v>
+        <v>1.000043567992867</v>
       </c>
       <c r="O3">
         <v>1.000016338583803</v>
@@ -746,7 +698,7 @@
         <v>1.000001148548654</v>
       </c>
       <c r="R3">
-        <v>0.999998184606021</v>
+        <v>0.9999981846060209</v>
       </c>
       <c r="S3">
         <v>0.9999789814462338</v>
@@ -764,7 +716,7 @@
         <v>0.999995693868784</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9998738372178897</v>
+      </c>
+      <c r="D4">
+        <v>0.9999747691747497</v>
+      </c>
+      <c r="E4">
         <v>1.000084107857689</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.000031540050173</v>
+      </c>
+      <c r="G4">
         <v>0.9998738372178897</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>0.9999728921694275</v>
+      </c>
+      <c r="I4">
+        <v>1.000046830123802</v>
+      </c>
+      <c r="J4">
+        <v>1.000084107857689</v>
+      </c>
+      <c r="K4">
+        <v>1.000084107857689</v>
+      </c>
+      <c r="L4">
+        <v>0.9999179715240555</v>
+      </c>
+      <c r="M4">
         <v>1.000031540050173</v>
-      </c>
-      <c r="F4">
-        <v>1.000084107857689</v>
-      </c>
-      <c r="G4">
-        <v>0.9999728921694275</v>
-      </c>
-      <c r="H4">
-        <v>1.000046830123802</v>
-      </c>
-      <c r="I4">
-        <v>1.000084107857689</v>
-      </c>
-      <c r="J4">
-        <v>0.9998738372178897</v>
-      </c>
-      <c r="K4">
-        <v>0.9999747691747497</v>
-      </c>
-      <c r="L4">
-        <v>1.000031540050173</v>
-      </c>
-      <c r="M4">
-        <v>0.9999179715240555</v>
       </c>
       <c r="N4">
         <v>1.000084107857689</v>
@@ -835,7 +787,7 @@
         <v>0.9999916860209949</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9997582243656344</v>
+      </c>
+      <c r="D5">
+        <v>0.9999516462883216</v>
+      </c>
+      <c r="E5">
         <v>1.000161185399341</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.000060438927275</v>
+      </c>
+      <c r="G5">
         <v>0.9997582243656344</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>0.9999480489347641</v>
+      </c>
+      <c r="I5">
+        <v>1.000089744286274</v>
+      </c>
+      <c r="J5">
+        <v>1.000161185399341</v>
+      </c>
+      <c r="K5">
+        <v>1.000161185399341</v>
+      </c>
+      <c r="L5">
+        <v>0.9998428052593447</v>
+      </c>
+      <c r="M5">
         <v>1.000060438927275</v>
-      </c>
-      <c r="F5">
-        <v>1.000161185399341</v>
-      </c>
-      <c r="G5">
-        <v>0.999948048934764</v>
-      </c>
-      <c r="H5">
-        <v>1.000089744286274</v>
-      </c>
-      <c r="I5">
-        <v>1.000161185399341</v>
-      </c>
-      <c r="J5">
-        <v>0.9997582243656344</v>
-      </c>
-      <c r="K5">
-        <v>0.9999516462883216</v>
-      </c>
-      <c r="L5">
-        <v>1.000060438927275</v>
-      </c>
-      <c r="M5">
-        <v>0.9998428052593447</v>
       </c>
       <c r="N5">
         <v>1.000161185399341</v>
@@ -891,7 +843,7 @@
         <v>0.9999932828974166</v>
       </c>
       <c r="S5">
-        <v>0.9999222374092244</v>
+        <v>0.9999222374092245</v>
       </c>
       <c r="T5">
         <v>0.9999932828974166</v>
@@ -906,7 +858,7 @@
         <v>0.9999840665485286</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9996453958735342</v>
+      </c>
+      <c r="D6">
+        <v>0.9999290756802378</v>
+      </c>
+      <c r="E6">
         <v>1.000236399566401</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.000088647805852</v>
+      </c>
+      <c r="G6">
         <v>0.9996453958735342</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>0.9999238044728398</v>
+      </c>
+      <c r="I6">
+        <v>1.000131630565799</v>
+      </c>
+      <c r="J6">
+        <v>1.000236399566401</v>
+      </c>
+      <c r="K6">
+        <v>1.000236399566401</v>
+      </c>
+      <c r="L6">
+        <v>0.9997694417389956</v>
+      </c>
+      <c r="M6">
         <v>1.000088647805852</v>
-      </c>
-      <c r="F6">
-        <v>1.000236399566401</v>
-      </c>
-      <c r="G6">
-        <v>0.9999238044728398</v>
-      </c>
-      <c r="H6">
-        <v>1.000131630565799</v>
-      </c>
-      <c r="I6">
-        <v>1.000236399566401</v>
-      </c>
-      <c r="J6">
-        <v>0.9996453958735342</v>
-      </c>
-      <c r="K6">
-        <v>0.9999290756802378</v>
-      </c>
-      <c r="L6">
-        <v>1.000088647805852</v>
-      </c>
-      <c r="M6">
-        <v>0.9997694417389956</v>
       </c>
       <c r="N6">
         <v>1.000236399566401</v>
@@ -977,7 +929,7 @@
         <v>0.9999766304386888</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999980594444019</v>
+      </c>
+      <c r="D7">
+        <v>0.9999996141372133</v>
+      </c>
+      <c r="E7">
         <v>1.000001292768302</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1.000000486165669</v>
+      </c>
+      <c r="G7">
         <v>0.9999980594444019</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>0.9999995843807525</v>
+      </c>
+      <c r="I7">
+        <v>1.000000721153562</v>
+      </c>
+      <c r="J7">
+        <v>1.000001292768302</v>
+      </c>
+      <c r="K7">
+        <v>1.000001292768302</v>
+      </c>
+      <c r="L7">
+        <v>0.9999987395720004</v>
+      </c>
+      <c r="M7">
         <v>1.000000486165669</v>
-      </c>
-      <c r="F7">
-        <v>1.000001292768302</v>
-      </c>
-      <c r="G7">
-        <v>0.9999995843807525</v>
-      </c>
-      <c r="H7">
-        <v>1.000000721153562</v>
-      </c>
-      <c r="I7">
-        <v>1.000001292768302</v>
-      </c>
-      <c r="J7">
-        <v>0.9999980594444019</v>
-      </c>
-      <c r="K7">
-        <v>0.9999996141372133</v>
-      </c>
-      <c r="L7">
-        <v>1.000000486165669</v>
-      </c>
-      <c r="M7">
-        <v>0.9999987395720005</v>
       </c>
       <c r="N7">
         <v>1.000001292768302</v>
@@ -1024,7 +976,7 @@
         <v>1.000000486165669</v>
       </c>
       <c r="P7">
-        <v>0.9999992728050355</v>
+        <v>0.9999992728050358</v>
       </c>
       <c r="Q7">
         <v>1.000000035273211</v>
@@ -1033,7 +985,7 @@
         <v>0.9999999461261243</v>
       </c>
       <c r="S7">
-        <v>0.9999993766636078</v>
+        <v>0.9999993766636081</v>
       </c>
       <c r="T7">
         <v>0.9999999461261243</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999998729734463</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999992693106465</v>
+      </c>
+      <c r="D8">
+        <v>0.9999998560500029</v>
+      </c>
+      <c r="E8">
         <v>1.000000486009434</v>
       </c>
-      <c r="D8">
-        <v>0.9999992693106468</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.000000183625916</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <v>0.9999992693106465</v>
+      </c>
+      <c r="H8">
+        <v>0.9999998444390877</v>
+      </c>
+      <c r="I8">
+        <v>1.000000272084118</v>
+      </c>
+      <c r="J8">
         <v>1.000000486009434</v>
       </c>
-      <c r="G8">
-        <v>0.9999998444390877</v>
-      </c>
-      <c r="H8">
-        <v>1.000000272084118</v>
-      </c>
-      <c r="I8">
+      <c r="K8">
         <v>1.000000486009434</v>
       </c>
-      <c r="J8">
-        <v>0.9999992693106468</v>
-      </c>
-      <c r="K8">
-        <v>0.9999998560500029</v>
-      </c>
       <c r="L8">
+        <v>0.9999995263966363</v>
+      </c>
+      <c r="M8">
         <v>1.000000183625916</v>
-      </c>
-      <c r="M8">
-        <v>0.999999526396636</v>
       </c>
       <c r="N8">
         <v>1.000000486009434</v>
@@ -1116,10 +1068,10 @@
         <v>1.000000053878904</v>
       </c>
       <c r="W8">
-        <v>0.9999999526927196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999999526927197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,40 +1079,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999955621507089</v>
+        <v>1.00000665505566</v>
       </c>
       <c r="D9">
+        <v>1.000001333410853</v>
+      </c>
+      <c r="E9">
+        <v>0.9999955621507092</v>
+      </c>
+      <c r="F9">
+        <v>0.9999983370882055</v>
+      </c>
+      <c r="G9">
         <v>1.00000665505566</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>1.000001431225912</v>
+      </c>
+      <c r="I9">
+        <v>0.999997530272079</v>
+      </c>
+      <c r="J9">
+        <v>0.9999955621507092</v>
+      </c>
+      <c r="K9">
+        <v>0.9999955621507092</v>
+      </c>
+      <c r="L9">
+        <v>1.000004328309854</v>
+      </c>
+      <c r="M9">
         <v>0.9999983370882055</v>
       </c>
-      <c r="F9">
-        <v>0.9999955621507089</v>
-      </c>
-      <c r="G9">
-        <v>1.000001431225912</v>
-      </c>
-      <c r="H9">
-        <v>0.999997530272079</v>
-      </c>
-      <c r="I9">
-        <v>0.9999955621507089</v>
-      </c>
-      <c r="J9">
-        <v>1.00000665505566</v>
-      </c>
-      <c r="K9">
-        <v>1.000001333410853</v>
-      </c>
-      <c r="L9">
-        <v>0.9999983370882055</v>
-      </c>
-      <c r="M9">
-        <v>1.000004328309854</v>
-      </c>
       <c r="N9">
-        <v>0.9999955621507089</v>
+        <v>0.9999955621507092</v>
       </c>
       <c r="O9">
         <v>0.9999983370882055</v>
@@ -1190,7 +1142,7 @@
         <v>1.000000439325185</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000007393278709</v>
+      </c>
+      <c r="D10">
+        <v>1.000001480324157</v>
+      </c>
+      <c r="E10">
         <v>0.9999950707193996</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>0.9999981533096574</v>
+      </c>
+      <c r="G10">
         <v>1.000007393278709</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <v>1.000001589426487</v>
+      </c>
+      <c r="I10">
+        <v>0.999997254905705</v>
+      </c>
+      <c r="J10">
+        <v>0.9999950707193996</v>
+      </c>
+      <c r="K10">
+        <v>0.9999950707193996</v>
+      </c>
+      <c r="L10">
+        <v>1.000004808974373</v>
+      </c>
+      <c r="M10">
         <v>0.9999981533096574</v>
-      </c>
-      <c r="F10">
-        <v>0.9999950707193996</v>
-      </c>
-      <c r="G10">
-        <v>1.000001589426487</v>
-      </c>
-      <c r="H10">
-        <v>0.999997254905705</v>
-      </c>
-      <c r="I10">
-        <v>0.9999950707193996</v>
-      </c>
-      <c r="J10">
-        <v>1.000007393278709</v>
-      </c>
-      <c r="K10">
-        <v>1.000001480324157</v>
-      </c>
-      <c r="L10">
-        <v>0.9999981533096574</v>
-      </c>
-      <c r="M10">
-        <v>1.000004808974373</v>
       </c>
       <c r="N10">
         <v>0.9999950707193996</v>
@@ -1261,7 +1213,7 @@
         <v>1.000000488031018</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,49 +1221,49 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000029761041818</v>
+      </c>
+      <c r="D11">
+        <v>1.000005955945437</v>
+      </c>
+      <c r="E11">
         <v>0.9999801582747998</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="G11">
         <v>1.000029761041818</v>
       </c>
-      <c r="E11">
-        <v>0.9999925601641226</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>1.000006395863271</v>
+      </c>
+      <c r="I11">
+        <v>0.999988954546525</v>
+      </c>
+      <c r="J11">
         <v>0.9999801582747998</v>
       </c>
-      <c r="G11">
-        <v>1.000006395863271</v>
-      </c>
-      <c r="H11">
-        <v>0.999988954546525</v>
-      </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.9999801582747998</v>
       </c>
-      <c r="J11">
-        <v>1.000029761041818</v>
-      </c>
-      <c r="K11">
-        <v>1.000005955945437</v>
-      </c>
       <c r="L11">
-        <v>0.9999925601641226</v>
+        <v>1.000019351654928</v>
       </c>
       <c r="M11">
-        <v>1.000019351654928</v>
+        <v>0.9999925601641224</v>
       </c>
       <c r="N11">
         <v>0.9999801582747998</v>
       </c>
       <c r="O11">
-        <v>0.9999925601641226</v>
+        <v>0.9999925601641224</v>
       </c>
       <c r="P11">
         <v>1.00001116060297</v>
       </c>
       <c r="Q11">
-        <v>0.9999994780136969</v>
+        <v>0.9999994780136968</v>
       </c>
       <c r="R11">
         <v>1.00000082649358</v>
@@ -1332,7 +1284,7 @@
         <v>1.000001962206878</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="D12">
+        <v>0.9999775195144412</v>
+      </c>
+      <c r="E12">
         <v>1.000074918695383</v>
       </c>
-      <c r="D12">
-        <v>0.9998876122407556</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.000028097300705</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="H12">
+        <v>0.9999758503963181</v>
+      </c>
+      <c r="I12">
+        <v>1.000041724880303</v>
+      </c>
+      <c r="J12">
         <v>1.000074918695383</v>
       </c>
-      <c r="G12">
-        <v>0.9999758503963181</v>
-      </c>
-      <c r="H12">
-        <v>1.000041724880303</v>
-      </c>
-      <c r="I12">
+      <c r="K12">
         <v>1.000074918695383</v>
       </c>
-      <c r="J12">
-        <v>0.9998876122407556</v>
-      </c>
-      <c r="K12">
-        <v>0.9999775195144412</v>
-      </c>
       <c r="L12">
+        <v>0.9999269313745373</v>
+      </c>
+      <c r="M12">
         <v>1.000028097300705</v>
-      </c>
-      <c r="M12">
-        <v>0.9999269313745373</v>
       </c>
       <c r="N12">
         <v>1.000074918695383</v>
@@ -1403,7 +1355,7 @@
         <v>0.9999925939628937</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,46 +1363,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000020322947069</v>
+        <v>0.9999695108552538</v>
       </c>
       <c r="D13">
+        <v>0.9999939036952519</v>
+      </c>
+      <c r="E13">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="F13">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="G13">
         <v>0.9999695108552538</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <v>0.9999934502044738</v>
+      </c>
+      <c r="I13">
+        <v>1.00001131671161</v>
+      </c>
+      <c r="J13">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="K13">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="L13">
+        <v>0.9999801782131964</v>
+      </c>
+      <c r="M13">
         <v>1.000007626290974</v>
       </c>
-      <c r="F13">
-        <v>1.000020322947069</v>
-      </c>
-      <c r="G13">
-        <v>0.9999934502044737</v>
-      </c>
-      <c r="H13">
-        <v>1.00001131671161</v>
-      </c>
-      <c r="I13">
-        <v>1.000020322947069</v>
-      </c>
-      <c r="J13">
-        <v>0.9999695108552538</v>
-      </c>
-      <c r="K13">
-        <v>0.9999939036952515</v>
-      </c>
-      <c r="L13">
-        <v>1.000007626290974</v>
-      </c>
-      <c r="M13">
-        <v>0.9999801782131964</v>
-      </c>
       <c r="N13">
-        <v>1.000020322947069</v>
+        <v>1.000020322947068</v>
       </c>
       <c r="O13">
         <v>1.000007626290974</v>
       </c>
       <c r="P13">
-        <v>0.9999885685731137</v>
+        <v>0.9999885685731138</v>
       </c>
       <c r="Q13">
         <v>1.000000538247724</v>
@@ -1459,13 +1411,13 @@
         <v>0.999999153364432</v>
       </c>
       <c r="S13">
-        <v>0.9999901957835671</v>
+        <v>0.9999901957835672</v>
       </c>
       <c r="T13">
         <v>0.999999153364432</v>
       </c>
       <c r="U13">
-        <v>0.9999977275744424</v>
+        <v>0.9999977275744425</v>
       </c>
       <c r="V13">
         <v>1.000002246648968</v>
@@ -1474,7 +1426,7 @@
         <v>0.9999979919011002</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="D14">
+        <v>1.002138463749927</v>
+      </c>
+      <c r="E14">
         <v>0.9928718018038819</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="G14">
         <v>1.010692306143848</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>1.002297521799991</v>
+      </c>
+      <c r="I14">
+        <v>0.9960311143477768</v>
+      </c>
+      <c r="J14">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="K14">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="L14">
+        <v>1.006952199535176</v>
+      </c>
+      <c r="M14">
         <v>0.9973269266129244</v>
-      </c>
-      <c r="F14">
-        <v>0.9928718018038819</v>
-      </c>
-      <c r="G14">
-        <v>1.002297521799991</v>
-      </c>
-      <c r="H14">
-        <v>0.9960311143477768</v>
-      </c>
-      <c r="I14">
-        <v>0.9928718018038819</v>
-      </c>
-      <c r="J14">
-        <v>1.010692306143848</v>
-      </c>
-      <c r="K14">
-        <v>1.002138463749927</v>
-      </c>
-      <c r="L14">
-        <v>0.9973269266129244</v>
-      </c>
-      <c r="M14">
-        <v>1.006952199535176</v>
       </c>
       <c r="N14">
         <v>0.9928718018038819</v>
@@ -1545,7 +1497,7 @@
         <v>1.000704657575806</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="D15">
+        <v>1.000569981731863</v>
+      </c>
+      <c r="E15">
         <v>0.9981000766135258</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="G15">
         <v>1.00284988332352</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>1.000612369423445</v>
+      </c>
+      <c r="I15">
+        <v>0.9989421471445173</v>
+      </c>
+      <c r="J15">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="K15">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="L15">
+        <v>1.001853009877402</v>
+      </c>
+      <c r="M15">
         <v>0.9992875286153806</v>
-      </c>
-      <c r="F15">
-        <v>0.9981000766135258</v>
-      </c>
-      <c r="G15">
-        <v>1.000612369423445</v>
-      </c>
-      <c r="H15">
-        <v>0.9989421471445173</v>
-      </c>
-      <c r="I15">
-        <v>0.9981000766135258</v>
-      </c>
-      <c r="J15">
-        <v>1.00284988332352</v>
-      </c>
-      <c r="K15">
-        <v>1.000569981731863</v>
-      </c>
-      <c r="L15">
-        <v>0.9992875286153806</v>
-      </c>
-      <c r="M15">
-        <v>1.001853009877402</v>
       </c>
       <c r="N15">
         <v>0.9981000766135258</v>
@@ -1616,7 +1568,7 @@
         <v>1.000187815668129</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000179893585</v>
+        <v>0.9987268898949458</v>
       </c>
       <c r="D16">
-        <v>0.9999997290498686</v>
+        <v>0.9997453795473386</v>
       </c>
       <c r="E16">
-        <v>1.000000068692146</v>
+        <v>1.000848740562993</v>
       </c>
       <c r="F16">
-        <v>1.000000179893585</v>
+        <v>1.000318270451064</v>
       </c>
       <c r="G16">
-        <v>0.99999994309482</v>
+        <v>0.9987268898949458</v>
       </c>
       <c r="H16">
-        <v>1.000000101497391</v>
+        <v>0.9997264393399438</v>
       </c>
       <c r="I16">
-        <v>1.000000179893585</v>
+        <v>1.000472567868715</v>
       </c>
       <c r="J16">
-        <v>0.9999997290498686</v>
+        <v>1.000848740562993</v>
       </c>
       <c r="K16">
-        <v>0.9999999480372619</v>
+        <v>1.000848740562993</v>
       </c>
       <c r="L16">
-        <v>1.000000068692146</v>
+        <v>0.9991722247640683</v>
       </c>
       <c r="M16">
-        <v>0.9999998252927278</v>
+        <v>1.000318270451064</v>
       </c>
       <c r="N16">
-        <v>1.000000179893585</v>
+        <v>1.000848740562993</v>
       </c>
       <c r="O16">
-        <v>1.000000068692146</v>
+        <v>1.000318270451064</v>
       </c>
       <c r="P16">
-        <v>0.9999998988710074</v>
+        <v>0.999522580173005</v>
       </c>
       <c r="Q16">
-        <v>1.000000005893483</v>
+        <v>1.000022354895504</v>
       </c>
       <c r="R16">
-        <v>0.9999999925452</v>
+        <v>0.9999646336363343</v>
       </c>
       <c r="S16">
-        <v>0.9999999136122782</v>
+        <v>0.9995905332286513</v>
       </c>
       <c r="T16">
-        <v>0.9999999925452</v>
+        <v>0.9999646336363343</v>
       </c>
       <c r="U16">
-        <v>0.9999999801826049</v>
+        <v>0.9999050850622366</v>
       </c>
       <c r="V16">
-        <v>1.000000020124801</v>
+        <v>1.000093816162388</v>
       </c>
       <c r="W16">
-        <v>0.9999999830312434</v>
+        <v>0.9999160978600167</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003810149395</v>
+        <v>0.998963466652855</v>
       </c>
       <c r="D17">
-        <v>0.9999942836438702</v>
+        <v>0.9997926949142367</v>
       </c>
       <c r="E17">
-        <v>1.000001430164178</v>
+        <v>1.000691022201087</v>
       </c>
       <c r="F17">
-        <v>1.000003810149395</v>
+        <v>1.000259128756796</v>
       </c>
       <c r="G17">
-        <v>0.9999987730733326</v>
+        <v>0.998963466652855</v>
       </c>
       <c r="H17">
-        <v>1.000002122519421</v>
+        <v>0.9997772743842585</v>
       </c>
       <c r="I17">
-        <v>1.000003810149395</v>
+        <v>1.000384752862512</v>
       </c>
       <c r="J17">
-        <v>0.9999942836438702</v>
+        <v>1.000691022201087</v>
       </c>
       <c r="K17">
-        <v>0.9999988588801481</v>
+        <v>1.000691022201087</v>
       </c>
       <c r="L17">
-        <v>1.000001430164178</v>
+        <v>0.9993260460856327</v>
       </c>
       <c r="M17">
-        <v>0.9999962847585441</v>
+        <v>1.000259128756796</v>
       </c>
       <c r="N17">
-        <v>1.000003810149395</v>
+        <v>1.000691022201087</v>
       </c>
       <c r="O17">
-        <v>1.000001430164178</v>
+        <v>1.000259128756796</v>
       </c>
       <c r="P17">
-        <v>0.9999978569040242</v>
+        <v>0.9996112977048257</v>
       </c>
       <c r="Q17">
-        <v>1.000000101618755</v>
+        <v>1.000018201570527</v>
       </c>
       <c r="R17">
-        <v>0.9999998413191479</v>
+        <v>0.999971205870246</v>
       </c>
       <c r="S17">
-        <v>0.9999981622937937</v>
+        <v>0.9996666232646366</v>
       </c>
       <c r="T17">
-        <v>0.9999998413191479</v>
+        <v>0.999971205870246</v>
       </c>
       <c r="U17">
-        <v>0.999999574257694</v>
+        <v>0.9999227229987491</v>
       </c>
       <c r="V17">
-        <v>1.000000421436034</v>
+        <v>1.000076382839217</v>
       </c>
       <c r="W17">
-        <v>0.9999996241691335</v>
+        <v>0.9999316893267718</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013417029376</v>
+        <v>0.9994492277827457</v>
       </c>
       <c r="D18">
-        <v>0.9999798779190787</v>
+        <v>0.9998898463554926</v>
       </c>
       <c r="E18">
-        <v>1.000005031290864</v>
+        <v>1.000367182294833</v>
       </c>
       <c r="F18">
-        <v>1.000013417029376</v>
+        <v>1.000137693002349</v>
       </c>
       <c r="G18">
-        <v>0.9999956769890658</v>
+        <v>0.9994492277827457</v>
       </c>
       <c r="H18">
-        <v>1.000007469503847</v>
+        <v>0.9998816525409744</v>
       </c>
       <c r="I18">
-        <v>1.000013417029376</v>
+        <v>1.00020444272696</v>
       </c>
       <c r="J18">
-        <v>0.9999798779190787</v>
+        <v>1.000367182294833</v>
       </c>
       <c r="K18">
-        <v>0.9999959790923241</v>
+        <v>1.000367182294833</v>
       </c>
       <c r="L18">
-        <v>1.000005031290864</v>
+        <v>0.9996418871357926</v>
       </c>
       <c r="M18">
-        <v>0.9999869193405574</v>
+        <v>1.000137693002349</v>
       </c>
       <c r="N18">
-        <v>1.000013417029376</v>
+        <v>1.000367182294833</v>
       </c>
       <c r="O18">
-        <v>1.000005031290864</v>
+        <v>1.000137693002349</v>
       </c>
       <c r="P18">
-        <v>0.9999924546049714</v>
+        <v>0.9997934603925471</v>
       </c>
       <c r="Q18">
-        <v>1.000000354139965</v>
+        <v>1.000009672771661</v>
       </c>
       <c r="R18">
-        <v>0.9999994420797731</v>
+        <v>0.9999847010266425</v>
       </c>
       <c r="S18">
-        <v>0.999993528733003</v>
+        <v>0.9998228577753562</v>
       </c>
       <c r="T18">
-        <v>0.9999994420797731</v>
+        <v>0.9999847010266425</v>
       </c>
       <c r="U18">
-        <v>0.9999985008070963</v>
+        <v>0.9999589389052255</v>
       </c>
       <c r="V18">
-        <v>1.000001484051552</v>
+        <v>1.000040587583147</v>
       </c>
       <c r="W18">
-        <v>0.9999986753069972</v>
+        <v>0.999963703105187</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9993668731649471</v>
+      </c>
+      <c r="D19">
+        <v>0.9998733765108533</v>
+      </c>
+      <c r="E19">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="F19">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="G19">
+        <v>0.9993668731649471</v>
+      </c>
+      <c r="H19">
+        <v>0.9998639573836305</v>
+      </c>
+      <c r="I19">
+        <v>1.000235011284649</v>
+      </c>
+      <c r="J19">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="K19">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="L19">
+        <v>0.9995883404928871</v>
+      </c>
+      <c r="M19">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="N19">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="O19">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="P19">
+        <v>0.9997625766375871</v>
+      </c>
+      <c r="Q19">
+        <v>1.000011118746929</v>
+      </c>
+      <c r="R19">
+        <v>0.9999824132141587</v>
+      </c>
+      <c r="S19">
+        <v>0.9997963702196015</v>
+      </c>
+      <c r="T19">
+        <v>0.9999824132141587</v>
+      </c>
+      <c r="U19">
+        <v>0.9999527992565267</v>
+      </c>
+      <c r="V19">
+        <v>1.000046656678682</v>
+      </c>
+      <c r="W19">
+        <v>0.9999582756780905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999997290498686</v>
+      </c>
+      <c r="D20">
+        <v>0.999999948037262</v>
+      </c>
+      <c r="E20">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="F20">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="G20">
+        <v>0.9999997290498686</v>
+      </c>
+      <c r="H20">
+        <v>0.99999994309482</v>
+      </c>
+      <c r="I20">
+        <v>1.000000101497391</v>
+      </c>
+      <c r="J20">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="K20">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="L20">
+        <v>0.9999998252927277</v>
+      </c>
+      <c r="M20">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="N20">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="O20">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998988710074</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000005893483</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999925452</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999136122782</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999925452</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999801826049</v>
+      </c>
+      <c r="V20">
+        <v>1.000000020124801</v>
+      </c>
+      <c r="W20">
+        <v>0.9999999830312434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999942836438702</v>
+      </c>
+      <c r="D21">
+        <v>0.9999988588801481</v>
+      </c>
+      <c r="E21">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="F21">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="G21">
+        <v>0.9999942836438702</v>
+      </c>
+      <c r="H21">
+        <v>0.9999987730733327</v>
+      </c>
+      <c r="I21">
+        <v>1.000002122519421</v>
+      </c>
+      <c r="J21">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="K21">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="L21">
+        <v>0.9999962847585441</v>
+      </c>
+      <c r="M21">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="N21">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="O21">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="P21">
+        <v>0.9999978569040242</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000101618755</v>
+      </c>
+      <c r="R21">
+        <v>0.9999998413191479</v>
+      </c>
+      <c r="S21">
+        <v>0.9999981622937937</v>
+      </c>
+      <c r="T21">
+        <v>0.9999998413191479</v>
+      </c>
+      <c r="U21">
+        <v>0.999999574257694</v>
+      </c>
+      <c r="V21">
+        <v>1.000000421436034</v>
+      </c>
+      <c r="W21">
+        <v>0.9999996241691335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999798779190785</v>
+      </c>
+      <c r="D22">
+        <v>0.9999959790923241</v>
+      </c>
+      <c r="E22">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="F22">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="G22">
+        <v>0.9999798779190785</v>
+      </c>
+      <c r="H22">
+        <v>0.9999956769890658</v>
+      </c>
+      <c r="I22">
+        <v>1.000007469503847</v>
+      </c>
+      <c r="J22">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="K22">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="L22">
+        <v>0.9999869193405575</v>
+      </c>
+      <c r="M22">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="N22">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="O22">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="P22">
+        <v>0.9999924546049713</v>
+      </c>
+      <c r="Q22">
+        <v>1.000000354139965</v>
+      </c>
+      <c r="R22">
+        <v>0.999999442079773</v>
+      </c>
+      <c r="S22">
+        <v>0.9999935287330027</v>
+      </c>
+      <c r="T22">
+        <v>0.999999442079773</v>
+      </c>
+      <c r="U22">
+        <v>0.9999985008070962</v>
+      </c>
+      <c r="V22">
+        <v>1.000001484051552</v>
+      </c>
+      <c r="W22">
+        <v>0.9999986753069972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9999528579123589</v>
+      </c>
+      <c r="D23">
+        <v>0.9999905748403475</v>
+      </c>
+      <c r="E23">
         <v>1.000031426453913</v>
       </c>
-      <c r="D19">
-        <v>0.999952857912359</v>
-      </c>
-      <c r="E19">
+      <c r="F23">
         <v>1.000011783923545</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>0.9999528579123589</v>
+      </c>
+      <c r="H23">
+        <v>0.9999898667408192</v>
+      </c>
+      <c r="I23">
+        <v>1.000017498603616</v>
+      </c>
+      <c r="J23">
         <v>1.000031426453913</v>
       </c>
-      <c r="G19">
-        <v>0.9999898667408192</v>
-      </c>
-      <c r="H19">
-        <v>1.000017498603616</v>
-      </c>
-      <c r="I19">
+      <c r="K23">
         <v>1.000031426453913</v>
       </c>
-      <c r="J19">
-        <v>0.999952857912359</v>
-      </c>
-      <c r="K19">
-        <v>0.9999905748403475</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
+        <v>0.9999693546599551</v>
+      </c>
+      <c r="M23">
         <v>1.000011783923545</v>
       </c>
-      <c r="M19">
-        <v>0.9999693546599551</v>
-      </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000031426453913</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000011783923545</v>
       </c>
-      <c r="P19">
-        <v>0.9999823209179521</v>
-      </c>
-      <c r="Q19">
+      <c r="P23">
+        <v>0.999982320917952</v>
+      </c>
+      <c r="Q23">
         <v>1.000000825332182</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.999998689429939</v>
       </c>
-      <c r="S19">
-        <v>0.9999848361922412</v>
-      </c>
-      <c r="T19">
+      <c r="S23">
+        <v>0.9999848361922411</v>
+      </c>
+      <c r="T23">
         <v>0.999998689429939</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.999996483757659</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.00000347229691</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999968933822625</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999346472413927</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="D3">
-        <v>0.9999869315128047</v>
+        <v>0.9998620677593647</v>
       </c>
       <c r="E3">
-        <v>1.000043567992867</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="F3">
-        <v>1.000016338583803</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="G3">
-        <v>0.9999346472413927</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="H3">
-        <v>0.999985958513506</v>
+        <v>0.999851807946684</v>
       </c>
       <c r="I3">
-        <v>1.00002425914719</v>
+        <v>1.000256001001442</v>
       </c>
       <c r="J3">
-        <v>1.000043567992867</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="K3">
-        <v>1.000043567992867</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="L3">
-        <v>0.9999575093749052</v>
+        <v>0.9995515751008648</v>
       </c>
       <c r="M3">
-        <v>1.000016338583803</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="N3">
-        <v>1.000043567992867</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="O3">
-        <v>1.000016338583803</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="P3">
-        <v>0.9999754929125977</v>
+        <v>0.9997413738364544</v>
       </c>
       <c r="Q3">
-        <v>1.000001148548654</v>
+        <v>1.000012112319883</v>
       </c>
       <c r="R3">
-        <v>0.9999981846060209</v>
+        <v>0.9999808420124876</v>
       </c>
       <c r="S3">
-        <v>0.9999789814462338</v>
+        <v>0.9997781852065311</v>
       </c>
       <c r="T3">
-        <v>0.9999981846060209</v>
+        <v>0.9999808420124876</v>
       </c>
       <c r="U3">
-        <v>0.9999951280828921</v>
+        <v>0.9999485834960367</v>
       </c>
       <c r="V3">
-        <v>1.000004816064887</v>
+        <v>1.00005082246974</v>
       </c>
       <c r="W3">
-        <v>0.999995693868784</v>
+        <v>0.9999545493173625</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9998738372178897</v>
+        <v>0.9993696256783438</v>
       </c>
       <c r="D4">
-        <v>0.9999747691747497</v>
+        <v>0.9998739267163659</v>
       </c>
       <c r="E4">
-        <v>1.000084107857689</v>
+        <v>1.0004202485082</v>
       </c>
       <c r="F4">
-        <v>1.000031540050173</v>
+        <v>1.000157593548266</v>
       </c>
       <c r="G4">
-        <v>0.9998738372178897</v>
+        <v>0.9993696256783438</v>
       </c>
       <c r="H4">
-        <v>0.9999728921694275</v>
+        <v>0.999864548966642</v>
       </c>
       <c r="I4">
-        <v>1.000046830123802</v>
+        <v>1.000233990934585</v>
       </c>
       <c r="J4">
-        <v>1.000084107857689</v>
+        <v>1.0004202485082</v>
       </c>
       <c r="K4">
-        <v>1.000084107857689</v>
+        <v>1.0004202485082</v>
       </c>
       <c r="L4">
-        <v>0.9999179715240555</v>
+        <v>0.9995901286628694</v>
       </c>
       <c r="M4">
-        <v>1.000031540050173</v>
+        <v>1.000157593548266</v>
       </c>
       <c r="N4">
-        <v>1.000084107857689</v>
+        <v>1.0004202485082</v>
       </c>
       <c r="O4">
-        <v>1.000031540050173</v>
+        <v>1.000157593548266</v>
       </c>
       <c r="P4">
-        <v>0.9999526886340313</v>
+        <v>0.9997636096133049</v>
       </c>
       <c r="Q4">
-        <v>1.0000022161098</v>
+        <v>1.000011071257454</v>
       </c>
       <c r="R4">
-        <v>0.9999964950419172</v>
+        <v>0.9999824892449367</v>
       </c>
       <c r="S4">
-        <v>0.99995942314583</v>
+        <v>0.9997972560644173</v>
       </c>
       <c r="T4">
-        <v>0.9999964950419172</v>
+        <v>0.9999824892449367</v>
       </c>
       <c r="U4">
-        <v>0.9999905943237948</v>
+        <v>0.999953004175363</v>
       </c>
       <c r="V4">
-        <v>1.000009297030574</v>
+        <v>1.00004645304193</v>
       </c>
       <c r="W4">
-        <v>0.9999916860209949</v>
+        <v>0.9999584570704423</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9997582243656344</v>
+        <v>0.9992065552830204</v>
       </c>
       <c r="D5">
-        <v>0.9999516462883216</v>
+        <v>0.9998413108355795</v>
       </c>
       <c r="E5">
-        <v>1.000161185399341</v>
+        <v>1.000528964258761</v>
       </c>
       <c r="F5">
-        <v>1.000060438927275</v>
+        <v>1.000198358975742</v>
       </c>
       <c r="G5">
-        <v>0.9997582243656344</v>
+        <v>0.9992065552830204</v>
       </c>
       <c r="H5">
-        <v>0.9999480489347641</v>
+        <v>0.9998295080862524</v>
       </c>
       <c r="I5">
-        <v>1.000089744286274</v>
+        <v>1.000294519838272</v>
       </c>
       <c r="J5">
-        <v>1.000161185399341</v>
+        <v>1.000528964258761</v>
       </c>
       <c r="K5">
-        <v>1.000161185399341</v>
+        <v>1.000528964258761</v>
       </c>
       <c r="L5">
-        <v>0.9998428052593447</v>
+        <v>0.9994841001617246</v>
       </c>
       <c r="M5">
-        <v>1.000060438927275</v>
+        <v>1.000198358975742</v>
       </c>
       <c r="N5">
-        <v>1.000161185399341</v>
+        <v>1.000528964258761</v>
       </c>
       <c r="O5">
-        <v>1.000060438927275</v>
+        <v>1.000198358975742</v>
       </c>
       <c r="P5">
-        <v>0.9999093316464546</v>
+        <v>0.9997024571293811</v>
       </c>
       <c r="Q5">
-        <v>1.000004243931019</v>
+        <v>1.000013933530997</v>
       </c>
       <c r="R5">
-        <v>0.9999932828974166</v>
+        <v>0.999977959505841</v>
       </c>
       <c r="S5">
-        <v>0.9999222374092245</v>
+        <v>0.9997448074483382</v>
       </c>
       <c r="T5">
-        <v>0.9999932828974166</v>
+        <v>0.999977959505841</v>
       </c>
       <c r="U5">
-        <v>0.9999819744067535</v>
+        <v>0.9999408466509438</v>
       </c>
       <c r="V5">
-        <v>1.000017816605271</v>
+        <v>1.000058470172507</v>
       </c>
       <c r="W5">
-        <v>0.9999840665485286</v>
+        <v>0.9999477095518867</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9996453958735342</v>
+        <v>0.9991201659659084</v>
       </c>
       <c r="D6">
-        <v>0.9999290756802378</v>
+        <v>0.9998240372159091</v>
       </c>
       <c r="E6">
-        <v>1.000236399566401</v>
+        <v>1.000586556079546</v>
       </c>
       <c r="F6">
-        <v>1.000088647805852</v>
+        <v>1.000219949034092</v>
       </c>
       <c r="G6">
-        <v>0.9996453958735342</v>
+        <v>0.9991201659659084</v>
       </c>
       <c r="H6">
-        <v>0.9999238044728398</v>
+        <v>0.9998109420454548</v>
       </c>
       <c r="I6">
-        <v>1.000131630565799</v>
+        <v>1.000326594375001</v>
       </c>
       <c r="J6">
-        <v>1.000236399566401</v>
+        <v>1.000586556079546</v>
       </c>
       <c r="K6">
-        <v>1.000236399566401</v>
+        <v>1.000586556079546</v>
       </c>
       <c r="L6">
-        <v>0.9997694417389956</v>
+        <v>0.9994279318749996</v>
       </c>
       <c r="M6">
-        <v>1.000088647805852</v>
+        <v>1.000219949034092</v>
       </c>
       <c r="N6">
-        <v>1.000236399566401</v>
+        <v>1.000586556079546</v>
       </c>
       <c r="O6">
-        <v>1.000088647805852</v>
+        <v>1.000219949034092</v>
       </c>
       <c r="P6">
-        <v>0.999867021839693</v>
+        <v>0.9996700575</v>
       </c>
       <c r="Q6">
-        <v>1.000006226139346</v>
+        <v>1.000015445539773</v>
       </c>
       <c r="R6">
-        <v>0.9999901477485956</v>
+        <v>0.9999755570265153</v>
       </c>
       <c r="S6">
-        <v>0.9998859493840753</v>
+        <v>0.9997170190151516</v>
       </c>
       <c r="T6">
-        <v>0.9999901477485956</v>
+        <v>0.9999755570265153</v>
       </c>
       <c r="U6">
-        <v>0.9999735619296567</v>
+        <v>0.9999344032812503</v>
       </c>
       <c r="V6">
-        <v>1.000026129457006</v>
+        <v>1.000064833840909</v>
       </c>
       <c r="W6">
-        <v>0.9999766304386888</v>
+        <v>0.9999420157031254</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999980594444019</v>
+        <v>0.9986890827033273</v>
       </c>
       <c r="D7">
-        <v>0.9999996141372133</v>
+        <v>0.9997378182841725</v>
       </c>
       <c r="E7">
-        <v>1.000001292768302</v>
+        <v>1.000873944839911</v>
       </c>
       <c r="F7">
-        <v>1.000000486165669</v>
+        <v>1.00032772088349</v>
       </c>
       <c r="G7">
-        <v>0.9999980594444019</v>
+        <v>0.9986890827033273</v>
       </c>
       <c r="H7">
-        <v>0.9999995843807525</v>
+        <v>0.999718314882314</v>
       </c>
       <c r="I7">
-        <v>1.000000721153562</v>
+        <v>1.000486600043638</v>
       </c>
       <c r="J7">
-        <v>1.000001292768302</v>
+        <v>1.000873944839911</v>
       </c>
       <c r="K7">
-        <v>1.000001292768302</v>
+        <v>1.000873944839911</v>
       </c>
       <c r="L7">
-        <v>0.9999987395720004</v>
+        <v>0.9991476451143834</v>
       </c>
       <c r="M7">
-        <v>1.000000486165669</v>
+        <v>1.00032772088349</v>
       </c>
       <c r="N7">
-        <v>1.000001292768302</v>
+        <v>1.000873944839911</v>
       </c>
       <c r="O7">
-        <v>1.000000486165669</v>
+        <v>1.00032772088349</v>
       </c>
       <c r="P7">
-        <v>0.9999992728050358</v>
+        <v>0.9995084017934088</v>
       </c>
       <c r="Q7">
-        <v>1.000000035273211</v>
+        <v>1.000023017882902</v>
       </c>
       <c r="R7">
-        <v>0.9999999461261243</v>
+        <v>0.9999635828089097</v>
       </c>
       <c r="S7">
-        <v>0.9999993766636081</v>
+        <v>0.999578372823044</v>
       </c>
       <c r="T7">
-        <v>0.9999999461261243</v>
+        <v>0.9999635828089096</v>
       </c>
       <c r="U7">
-        <v>0.9999998556897813</v>
+        <v>0.9999022658272607</v>
       </c>
       <c r="V7">
-        <v>1.000000143105485</v>
+        <v>1.000096601629791</v>
       </c>
       <c r="W7">
-        <v>0.9999998729734463</v>
+        <v>0.999913605954341</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999992693106465</v>
+        <v>0.9987164438054673</v>
       </c>
       <c r="D8">
-        <v>0.9999998560500029</v>
+        <v>0.9997432905277821</v>
       </c>
       <c r="E8">
-        <v>1.000000486009434</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="F8">
-        <v>1.000000183625916</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="G8">
-        <v>0.9999992693106465</v>
+        <v>0.9987164438054673</v>
       </c>
       <c r="H8">
-        <v>0.9999998444390877</v>
+        <v>0.9997241941245965</v>
       </c>
       <c r="I8">
-        <v>1.000000272084118</v>
+        <v>1.000476443938535</v>
       </c>
       <c r="J8">
-        <v>1.000000486009434</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="K8">
-        <v>1.000000486009434</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="L8">
-        <v>0.9999995263966363</v>
+        <v>0.9991654354699542</v>
       </c>
       <c r="M8">
-        <v>1.000000183625916</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="N8">
-        <v>1.000000486009434</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="O8">
-        <v>1.000000183625916</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="P8">
-        <v>0.9999997264682813</v>
+        <v>0.9995186621660779</v>
       </c>
       <c r="Q8">
-        <v>1.000000014032502</v>
+        <v>1.000022537325643</v>
       </c>
       <c r="R8">
-        <v>0.9999999796486655</v>
+        <v>0.9999643428439496</v>
       </c>
       <c r="S8">
-        <v>0.9999997657918834</v>
+        <v>0.9995871728189174</v>
       </c>
       <c r="T8">
-        <v>0.9999999796486655</v>
+        <v>0.9999643428439496</v>
       </c>
       <c r="U8">
-        <v>0.9999999458462711</v>
+        <v>0.9999043056641114</v>
       </c>
       <c r="V8">
-        <v>1.000000053878904</v>
+        <v>1.000094585371228</v>
       </c>
       <c r="W8">
-        <v>0.9999999526927197</v>
+        <v>0.9999154091399257</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00000665505566</v>
+        <v>0.9987236321275881</v>
       </c>
       <c r="D9">
-        <v>1.000001333410853</v>
+        <v>0.9997447281906181</v>
       </c>
       <c r="E9">
-        <v>0.9999955621507092</v>
+        <v>1.000850911984995</v>
       </c>
       <c r="F9">
-        <v>0.9999983370882055</v>
+        <v>1.000319083357711</v>
       </c>
       <c r="G9">
-        <v>1.00000665505566</v>
+        <v>0.9987236321275881</v>
       </c>
       <c r="H9">
-        <v>1.000001431225912</v>
+        <v>0.9997257387366335</v>
       </c>
       <c r="I9">
-        <v>0.999997530272079</v>
+        <v>1.00047377580335</v>
       </c>
       <c r="J9">
-        <v>0.9999955621507092</v>
+        <v>1.000850911984995</v>
       </c>
       <c r="K9">
-        <v>0.9999955621507092</v>
+        <v>1.000850911984995</v>
       </c>
       <c r="L9">
-        <v>1.000004328309854</v>
+        <v>0.9991701093544331</v>
       </c>
       <c r="M9">
-        <v>0.9999983370882055</v>
+        <v>1.000319083357711</v>
       </c>
       <c r="N9">
-        <v>0.9999955621507092</v>
+        <v>1.000850911984995</v>
       </c>
       <c r="O9">
-        <v>0.9999983370882055</v>
+        <v>1.000319083357711</v>
       </c>
       <c r="P9">
-        <v>1.000002496071933</v>
+        <v>0.9995213577426495</v>
       </c>
       <c r="Q9">
-        <v>0.9999998841570589</v>
+        <v>1.000022411047172</v>
       </c>
       <c r="R9">
-        <v>1.000000184764858</v>
+        <v>0.9999645424900981</v>
       </c>
       <c r="S9">
-        <v>1.000002141123259</v>
+        <v>0.9995894847406442</v>
       </c>
       <c r="T9">
-        <v>1.000000184764858</v>
+        <v>0.9999645424900981</v>
       </c>
       <c r="U9">
-        <v>1.000000496380122</v>
+        <v>0.999904841551732</v>
       </c>
       <c r="V9">
-        <v>0.9999995095342392</v>
+        <v>1.000094055638385</v>
       </c>
       <c r="W9">
-        <v>1.000000439325185</v>
+        <v>0.9999158828641299</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000007393278709</v>
+        <v>0.9988885411750147</v>
       </c>
       <c r="D10">
-        <v>1.000001480324157</v>
+        <v>0.99977771015581</v>
       </c>
       <c r="E10">
-        <v>0.9999950707193996</v>
+        <v>1.000740972658858</v>
       </c>
       <c r="F10">
-        <v>0.9999981533096574</v>
+        <v>1.000277856005003</v>
       </c>
       <c r="G10">
-        <v>1.000007393278709</v>
+        <v>0.9988885411750147</v>
       </c>
       <c r="H10">
-        <v>1.000001589426487</v>
+        <v>0.9997611736716617</v>
       </c>
       <c r="I10">
-        <v>0.999997254905705</v>
+        <v>1.000412563238586</v>
       </c>
       <c r="J10">
-        <v>0.9999950707193996</v>
+        <v>1.000740972658858</v>
       </c>
       <c r="K10">
-        <v>0.9999950707193996</v>
+        <v>1.000740972658858</v>
       </c>
       <c r="L10">
-        <v>1.000004808974373</v>
+        <v>0.999277334328396</v>
       </c>
       <c r="M10">
-        <v>0.9999981533096574</v>
+        <v>1.000277856005003</v>
       </c>
       <c r="N10">
-        <v>0.9999950707193996</v>
+        <v>1.000740972658858</v>
       </c>
       <c r="O10">
-        <v>0.9999981533096574</v>
+        <v>1.000277856005003</v>
       </c>
       <c r="P10">
-        <v>1.000002773294183</v>
+        <v>0.999583198590009</v>
       </c>
       <c r="Q10">
-        <v>0.9999998713680721</v>
+        <v>1.000019514838333</v>
       </c>
       <c r="R10">
-        <v>1.000000205769255</v>
+        <v>0.9999691232796254</v>
       </c>
       <c r="S10">
-        <v>1.000002378671618</v>
+        <v>0.9996425236172266</v>
       </c>
       <c r="T10">
-        <v>1.000000205769255</v>
+        <v>0.9999691232796254</v>
       </c>
       <c r="U10">
-        <v>1.000000551683563</v>
+        <v>0.9999171358776345</v>
       </c>
       <c r="V10">
-        <v>0.9999994554907305</v>
+        <v>1.000081903233879</v>
       </c>
       <c r="W10">
-        <v>1.000000488031018</v>
+        <v>0.9999267509047918</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000029761041818</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="D11">
-        <v>1.000005955945437</v>
+        <v>0.9999848006543612</v>
       </c>
       <c r="E11">
-        <v>0.9999801582747998</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="F11">
-        <v>0.9999925601641224</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="G11">
-        <v>1.000029761041818</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="H11">
-        <v>1.000006395863271</v>
+        <v>0.9999836691789404</v>
       </c>
       <c r="I11">
-        <v>0.999988954546525</v>
+        <v>1.000028213653841</v>
       </c>
       <c r="J11">
-        <v>0.9999801582747998</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="K11">
-        <v>0.9999801582747998</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="L11">
-        <v>1.000019351654928</v>
+        <v>0.9999505809985033</v>
       </c>
       <c r="M11">
-        <v>0.9999925601641224</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="N11">
-        <v>0.9999801582747998</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="O11">
-        <v>0.9999925601641224</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="P11">
-        <v>1.00001116060297</v>
+        <v>0.9999714975026923</v>
       </c>
       <c r="Q11">
-        <v>0.9999994780136968</v>
+        <v>1.000001335943438</v>
       </c>
       <c r="R11">
-        <v>1.00000082649358</v>
+        <v>0.9999978887736009</v>
       </c>
       <c r="S11">
-        <v>1.000009572356404</v>
+        <v>0.9999755547281084</v>
       </c>
       <c r="T11">
-        <v>1.00000082649358</v>
+        <v>0.9999978887736009</v>
       </c>
       <c r="U11">
-        <v>1.000002218836003</v>
+        <v>0.9999943338749357</v>
       </c>
       <c r="V11">
-        <v>0.9999978067237624</v>
+        <v>1.000005601363032</v>
       </c>
       <c r="W11">
-        <v>1.000001962206878</v>
+        <v>0.999994991689298</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9998876122407557</v>
+        <v>0.9999687052444257</v>
       </c>
       <c r="D12">
-        <v>0.9999775195144412</v>
+        <v>0.9999937432680106</v>
       </c>
       <c r="E12">
-        <v>1.000074918695383</v>
+        <v>1.000020862266136</v>
       </c>
       <c r="F12">
-        <v>1.000028097300705</v>
+        <v>1.000007824424057</v>
       </c>
       <c r="G12">
-        <v>0.9998876122407557</v>
+        <v>0.9999687052444257</v>
       </c>
       <c r="H12">
-        <v>0.9999758503963181</v>
+        <v>0.999993276807903</v>
       </c>
       <c r="I12">
-        <v>1.000041724880303</v>
+        <v>1.000011617193053</v>
       </c>
       <c r="J12">
-        <v>1.000074918695383</v>
+        <v>1.000020862266136</v>
       </c>
       <c r="K12">
-        <v>1.000074918695383</v>
+        <v>1.000020862266136</v>
       </c>
       <c r="L12">
-        <v>0.9999269313745373</v>
+        <v>0.9999796535579122</v>
       </c>
       <c r="M12">
-        <v>1.000028097300705</v>
+        <v>1.000007824424057</v>
       </c>
       <c r="N12">
-        <v>1.000074918695383</v>
+        <v>1.000020862266136</v>
       </c>
       <c r="O12">
-        <v>1.000028097300705</v>
+        <v>1.000007824424057</v>
       </c>
       <c r="P12">
-        <v>0.9999578547707304</v>
+        <v>0.9999882648342413</v>
       </c>
       <c r="Q12">
-        <v>1.000001973848512</v>
+        <v>1.00000055061598</v>
       </c>
       <c r="R12">
-        <v>0.999996876078948</v>
+        <v>0.999999130644873</v>
       </c>
       <c r="S12">
-        <v>0.9999638533125929</v>
+        <v>0.9999899354921284</v>
       </c>
       <c r="T12">
-        <v>0.999996876078948</v>
+        <v>0.999999130644873</v>
       </c>
       <c r="U12">
-        <v>0.9999916196582905</v>
+        <v>0.9999976671856305</v>
       </c>
       <c r="V12">
-        <v>1.000008279465709</v>
+        <v>1.000002306201732</v>
       </c>
       <c r="W12">
-        <v>0.9999925939628937</v>
+        <v>0.9999979383981943</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999695108552538</v>
+        <v>0.9999507325206057</v>
       </c>
       <c r="D13">
-        <v>0.9999939036952519</v>
+        <v>0.9999901451851225</v>
       </c>
       <c r="E13">
-        <v>1.000020322947068</v>
+        <v>1.000032844498357</v>
       </c>
       <c r="F13">
-        <v>1.000007626290974</v>
+        <v>1.000012317694586</v>
       </c>
       <c r="G13">
-        <v>0.9999695108552538</v>
+        <v>0.9999507325206057</v>
       </c>
       <c r="H13">
-        <v>0.9999934502044738</v>
+        <v>0.9999894157682307</v>
       </c>
       <c r="I13">
-        <v>1.00001131671161</v>
+        <v>1.000018285701891</v>
       </c>
       <c r="J13">
-        <v>1.000020322947068</v>
+        <v>1.000032844498357</v>
       </c>
       <c r="K13">
-        <v>1.000020322947068</v>
+        <v>1.000032844498357</v>
       </c>
       <c r="L13">
-        <v>0.9999801782131964</v>
+        <v>0.9999679721690121</v>
       </c>
       <c r="M13">
-        <v>1.000007626290974</v>
+        <v>1.000012317694586</v>
       </c>
       <c r="N13">
-        <v>1.000020322947068</v>
+        <v>1.000032844498357</v>
       </c>
       <c r="O13">
-        <v>1.000007626290974</v>
+        <v>1.000012317694586</v>
       </c>
       <c r="P13">
-        <v>0.9999885685731138</v>
+        <v>0.9999815251075959</v>
       </c>
       <c r="Q13">
-        <v>1.000000538247724</v>
+        <v>1.000000866731408</v>
       </c>
       <c r="R13">
-        <v>0.999999153364432</v>
+        <v>0.999998631571183</v>
       </c>
       <c r="S13">
-        <v>0.9999901957835672</v>
+        <v>0.9999841553278075</v>
       </c>
       <c r="T13">
-        <v>0.999999153364432</v>
+        <v>0.999998631571183</v>
       </c>
       <c r="U13">
-        <v>0.9999977275744425</v>
+        <v>0.9999963276204449</v>
       </c>
       <c r="V13">
-        <v>1.000002246648968</v>
+        <v>1.000003630996027</v>
       </c>
       <c r="W13">
-        <v>0.9999979919011002</v>
+        <v>0.9999967539040489</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.010692306143848</v>
+        <v>0.9998189045623366</v>
       </c>
       <c r="D14">
-        <v>1.002138463749927</v>
+        <v>0.9999637838658977</v>
       </c>
       <c r="E14">
-        <v>0.9928718018038819</v>
+        <v>1.000120729823221</v>
       </c>
       <c r="F14">
-        <v>0.9973269266129244</v>
+        <v>1.000045269977692</v>
       </c>
       <c r="G14">
-        <v>1.010692306143848</v>
+        <v>0.9998189045623366</v>
       </c>
       <c r="H14">
-        <v>1.002297521799991</v>
+        <v>0.9999610842331579</v>
       </c>
       <c r="I14">
-        <v>0.9960311143477768</v>
+        <v>1.00006722482315</v>
       </c>
       <c r="J14">
-        <v>0.9928718018038819</v>
+        <v>1.000120729823221</v>
       </c>
       <c r="K14">
-        <v>0.9928718018038819</v>
+        <v>1.000120729823221</v>
       </c>
       <c r="L14">
-        <v>1.006952199535176</v>
+        <v>0.9998822565100058</v>
       </c>
       <c r="M14">
-        <v>0.9973269266129244</v>
+        <v>1.000045269977692</v>
       </c>
       <c r="N14">
-        <v>0.9928718018038819</v>
+        <v>1.000120729823221</v>
       </c>
       <c r="O14">
-        <v>0.9973269266129244</v>
+        <v>1.000045269977692</v>
       </c>
       <c r="P14">
-        <v>1.004009616378386</v>
+        <v>0.9999320872700141</v>
       </c>
       <c r="Q14">
-        <v>0.9998122242064578</v>
+        <v>1.000003177105425</v>
       </c>
       <c r="R14">
-        <v>1.000297011520218</v>
+        <v>0.999994968121083</v>
       </c>
       <c r="S14">
-        <v>1.003438918185588</v>
+        <v>0.9999417529243955</v>
       </c>
       <c r="T14">
-        <v>1.000297011520218</v>
+        <v>0.999994968121083</v>
       </c>
       <c r="U14">
-        <v>1.000797139090161</v>
+        <v>0.9999864971491017</v>
       </c>
       <c r="V14">
-        <v>0.9992120716329055</v>
+        <v>1.000013343683926</v>
       </c>
       <c r="W14">
-        <v>1.000704657575806</v>
+        <v>0.9999880654716442</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.00284988332352</v>
+        <v>0.9999346472413927</v>
       </c>
       <c r="D15">
-        <v>1.000569981731863</v>
+        <v>0.9999869315128047</v>
       </c>
       <c r="E15">
-        <v>0.9981000766135258</v>
+        <v>1.000043567992867</v>
       </c>
       <c r="F15">
-        <v>0.9992875286153806</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="G15">
-        <v>1.00284988332352</v>
+        <v>0.9999346472413927</v>
       </c>
       <c r="H15">
-        <v>1.000612369423445</v>
+        <v>0.999985958513506</v>
       </c>
       <c r="I15">
-        <v>0.9989421471445173</v>
+        <v>1.00002425914719</v>
       </c>
       <c r="J15">
-        <v>0.9981000766135258</v>
+        <v>1.000043567992867</v>
       </c>
       <c r="K15">
-        <v>0.9981000766135258</v>
+        <v>1.000043567992867</v>
       </c>
       <c r="L15">
-        <v>1.001853009877402</v>
+        <v>0.9999575093749052</v>
       </c>
       <c r="M15">
-        <v>0.9992875286153806</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="N15">
-        <v>0.9981000766135258</v>
+        <v>1.000043567992867</v>
       </c>
       <c r="O15">
-        <v>0.9992875286153806</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="P15">
-        <v>1.001068705969451</v>
+        <v>0.9999754929125977</v>
       </c>
       <c r="Q15">
-        <v>0.999949949019413</v>
+        <v>1.000001148548654</v>
       </c>
       <c r="R15">
-        <v>1.000079162850809</v>
+        <v>0.9999981846060209</v>
       </c>
       <c r="S15">
-        <v>1.000916593787449</v>
+        <v>0.9999789814462338</v>
       </c>
       <c r="T15">
-        <v>1.000079162850809</v>
+        <v>0.9999981846060209</v>
       </c>
       <c r="U15">
-        <v>1.000212464493968</v>
+        <v>0.9999951280828921</v>
       </c>
       <c r="V15">
-        <v>0.9997899869178797</v>
+        <v>1.000004816064887</v>
       </c>
       <c r="W15">
-        <v>1.000187815668129</v>
+        <v>0.999995693868784</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9987268898949458</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="D16">
-        <v>0.9997453795473386</v>
+        <v>0.9999747691747497</v>
       </c>
       <c r="E16">
-        <v>1.000848740562993</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="F16">
-        <v>1.000318270451064</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="G16">
-        <v>0.9987268898949458</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="H16">
-        <v>0.9997264393399438</v>
+        <v>0.9999728921694275</v>
       </c>
       <c r="I16">
-        <v>1.000472567868715</v>
+        <v>1.000046830123802</v>
       </c>
       <c r="J16">
-        <v>1.000848740562993</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="K16">
-        <v>1.000848740562993</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="L16">
-        <v>0.9991722247640683</v>
+        <v>0.9999179715240555</v>
       </c>
       <c r="M16">
-        <v>1.000318270451064</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="N16">
-        <v>1.000848740562993</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="O16">
-        <v>1.000318270451064</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="P16">
-        <v>0.999522580173005</v>
+        <v>0.9999526886340313</v>
       </c>
       <c r="Q16">
-        <v>1.000022354895504</v>
+        <v>1.0000022161098</v>
       </c>
       <c r="R16">
-        <v>0.9999646336363343</v>
+        <v>0.9999964950419172</v>
       </c>
       <c r="S16">
-        <v>0.9995905332286513</v>
+        <v>0.99995942314583</v>
       </c>
       <c r="T16">
-        <v>0.9999646336363343</v>
+        <v>0.9999964950419172</v>
       </c>
       <c r="U16">
-        <v>0.9999050850622366</v>
+        <v>0.9999905943237948</v>
       </c>
       <c r="V16">
-        <v>1.000093816162388</v>
+        <v>1.000009297030574</v>
       </c>
       <c r="W16">
-        <v>0.9999160978600167</v>
+        <v>0.9999916860209949</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.998963466652855</v>
+        <v>0.9997582243656344</v>
       </c>
       <c r="D17">
-        <v>0.9997926949142367</v>
+        <v>0.9999516462883216</v>
       </c>
       <c r="E17">
-        <v>1.000691022201087</v>
+        <v>1.000161185399341</v>
       </c>
       <c r="F17">
-        <v>1.000259128756796</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="G17">
-        <v>0.998963466652855</v>
+        <v>0.9997582243656344</v>
       </c>
       <c r="H17">
-        <v>0.9997772743842585</v>
+        <v>0.9999480489347641</v>
       </c>
       <c r="I17">
-        <v>1.000384752862512</v>
+        <v>1.000089744286274</v>
       </c>
       <c r="J17">
-        <v>1.000691022201087</v>
+        <v>1.000161185399341</v>
       </c>
       <c r="K17">
-        <v>1.000691022201087</v>
+        <v>1.000161185399341</v>
       </c>
       <c r="L17">
-        <v>0.9993260460856327</v>
+        <v>0.9998428052593447</v>
       </c>
       <c r="M17">
-        <v>1.000259128756796</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="N17">
-        <v>1.000691022201087</v>
+        <v>1.000161185399341</v>
       </c>
       <c r="O17">
-        <v>1.000259128756796</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="P17">
-        <v>0.9996112977048257</v>
+        <v>0.9999093316464546</v>
       </c>
       <c r="Q17">
-        <v>1.000018201570527</v>
+        <v>1.000004243931019</v>
       </c>
       <c r="R17">
-        <v>0.999971205870246</v>
+        <v>0.9999932828974166</v>
       </c>
       <c r="S17">
-        <v>0.9996666232646366</v>
+        <v>0.9999222374092245</v>
       </c>
       <c r="T17">
-        <v>0.999971205870246</v>
+        <v>0.9999932828974166</v>
       </c>
       <c r="U17">
-        <v>0.9999227229987491</v>
+        <v>0.9999819744067535</v>
       </c>
       <c r="V17">
-        <v>1.000076382839217</v>
+        <v>1.000017816605271</v>
       </c>
       <c r="W17">
-        <v>0.9999316893267718</v>
+        <v>0.9999840665485286</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9994492277827457</v>
+        <v>0.9996453958735342</v>
       </c>
       <c r="D18">
-        <v>0.9998898463554926</v>
+        <v>0.9999290756802378</v>
       </c>
       <c r="E18">
-        <v>1.000367182294833</v>
+        <v>1.000236399566401</v>
       </c>
       <c r="F18">
-        <v>1.000137693002349</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="G18">
-        <v>0.9994492277827457</v>
+        <v>0.9996453958735342</v>
       </c>
       <c r="H18">
-        <v>0.9998816525409744</v>
+        <v>0.9999238044728398</v>
       </c>
       <c r="I18">
-        <v>1.00020444272696</v>
+        <v>1.000131630565799</v>
       </c>
       <c r="J18">
-        <v>1.000367182294833</v>
+        <v>1.000236399566401</v>
       </c>
       <c r="K18">
-        <v>1.000367182294833</v>
+        <v>1.000236399566401</v>
       </c>
       <c r="L18">
-        <v>0.9996418871357926</v>
+        <v>0.9997694417389956</v>
       </c>
       <c r="M18">
-        <v>1.000137693002349</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="N18">
-        <v>1.000367182294833</v>
+        <v>1.000236399566401</v>
       </c>
       <c r="O18">
-        <v>1.000137693002349</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="P18">
-        <v>0.9997934603925471</v>
+        <v>0.999867021839693</v>
       </c>
       <c r="Q18">
-        <v>1.000009672771661</v>
+        <v>1.000006226139346</v>
       </c>
       <c r="R18">
-        <v>0.9999847010266425</v>
+        <v>0.9999901477485956</v>
       </c>
       <c r="S18">
-        <v>0.9998228577753562</v>
+        <v>0.9998859493840753</v>
       </c>
       <c r="T18">
-        <v>0.9999847010266425</v>
+        <v>0.9999901477485956</v>
       </c>
       <c r="U18">
-        <v>0.9999589389052255</v>
+        <v>0.9999735619296567</v>
       </c>
       <c r="V18">
-        <v>1.000040587583147</v>
+        <v>1.000026129457006</v>
       </c>
       <c r="W18">
-        <v>0.999963703105187</v>
+        <v>0.9999766304386888</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9993668731649471</v>
+        <v>0.9999980594444019</v>
       </c>
       <c r="D19">
-        <v>0.9998733765108533</v>
+        <v>0.9999996141372133</v>
       </c>
       <c r="E19">
-        <v>1.000422086367302</v>
+        <v>1.000001292768302</v>
       </c>
       <c r="F19">
-        <v>1.000158280110227</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="G19">
-        <v>0.9993668731649471</v>
+        <v>0.9999980594444019</v>
       </c>
       <c r="H19">
-        <v>0.9998639573836305</v>
+        <v>0.9999995843807525</v>
       </c>
       <c r="I19">
-        <v>1.000235011284649</v>
+        <v>1.000000721153562</v>
       </c>
       <c r="J19">
-        <v>1.000422086367302</v>
+        <v>1.000001292768302</v>
       </c>
       <c r="K19">
-        <v>1.000422086367302</v>
+        <v>1.000001292768302</v>
       </c>
       <c r="L19">
-        <v>0.9995883404928871</v>
+        <v>0.9999987395720004</v>
       </c>
       <c r="M19">
-        <v>1.000158280110227</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="N19">
-        <v>1.000422086367302</v>
+        <v>1.000001292768302</v>
       </c>
       <c r="O19">
-        <v>1.000158280110227</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="P19">
-        <v>0.9997625766375871</v>
+        <v>0.9999992728050358</v>
       </c>
       <c r="Q19">
-        <v>1.000011118746929</v>
+        <v>1.000000035273211</v>
       </c>
       <c r="R19">
-        <v>0.9999824132141587</v>
+        <v>0.9999999461261243</v>
       </c>
       <c r="S19">
-        <v>0.9997963702196015</v>
+        <v>0.9999993766636081</v>
       </c>
       <c r="T19">
-        <v>0.9999824132141587</v>
+        <v>0.9999999461261243</v>
       </c>
       <c r="U19">
-        <v>0.9999527992565267</v>
+        <v>0.9999998556897813</v>
       </c>
       <c r="V19">
-        <v>1.000046656678682</v>
+        <v>1.000000143105485</v>
       </c>
       <c r="W19">
-        <v>0.9999582756780905</v>
+        <v>0.9999998729734463</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999997290498686</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="D20">
-        <v>0.999999948037262</v>
+        <v>0.9999998560500029</v>
       </c>
       <c r="E20">
-        <v>1.000000179893585</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="F20">
-        <v>1.000000068692146</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="G20">
-        <v>0.9999997290498686</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="H20">
-        <v>0.99999994309482</v>
+        <v>0.9999998444390877</v>
       </c>
       <c r="I20">
-        <v>1.000000101497391</v>
+        <v>1.000000272084118</v>
       </c>
       <c r="J20">
-        <v>1.000000179893585</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="K20">
-        <v>1.000000179893585</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="L20">
-        <v>0.9999998252927277</v>
+        <v>0.9999995263966363</v>
       </c>
       <c r="M20">
-        <v>1.000000068692146</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="N20">
-        <v>1.000000179893585</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="O20">
-        <v>1.000000068692146</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="P20">
-        <v>0.9999998988710074</v>
+        <v>0.9999997264682813</v>
       </c>
       <c r="Q20">
-        <v>1.000000005893483</v>
+        <v>1.000000014032502</v>
       </c>
       <c r="R20">
-        <v>0.9999999925452</v>
+        <v>0.9999999796486655</v>
       </c>
       <c r="S20">
-        <v>0.9999999136122782</v>
+        <v>0.9999997657918834</v>
       </c>
       <c r="T20">
-        <v>0.9999999925452</v>
+        <v>0.9999999796486655</v>
       </c>
       <c r="U20">
-        <v>0.9999999801826049</v>
+        <v>0.9999999458462711</v>
       </c>
       <c r="V20">
-        <v>1.000000020124801</v>
+        <v>1.000000053878904</v>
       </c>
       <c r="W20">
-        <v>0.9999999830312434</v>
+        <v>0.9999999526927197</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999942836438702</v>
+        <v>1.00000665505566</v>
       </c>
       <c r="D21">
-        <v>0.9999988588801481</v>
+        <v>1.000001333410853</v>
       </c>
       <c r="E21">
-        <v>1.000003810149395</v>
+        <v>0.9999955621507092</v>
       </c>
       <c r="F21">
-        <v>1.000001430164178</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="G21">
-        <v>0.9999942836438702</v>
+        <v>1.00000665505566</v>
       </c>
       <c r="H21">
-        <v>0.9999987730733327</v>
+        <v>1.000001431225912</v>
       </c>
       <c r="I21">
-        <v>1.000002122519421</v>
+        <v>0.999997530272079</v>
       </c>
       <c r="J21">
-        <v>1.000003810149395</v>
+        <v>0.9999955621507092</v>
       </c>
       <c r="K21">
-        <v>1.000003810149395</v>
+        <v>0.9999955621507092</v>
       </c>
       <c r="L21">
-        <v>0.9999962847585441</v>
+        <v>1.000004328309854</v>
       </c>
       <c r="M21">
-        <v>1.000001430164178</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="N21">
-        <v>1.000003810149395</v>
+        <v>0.9999955621507092</v>
       </c>
       <c r="O21">
-        <v>1.000001430164178</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="P21">
-        <v>0.9999978569040242</v>
+        <v>1.000002496071933</v>
       </c>
       <c r="Q21">
-        <v>1.000000101618755</v>
+        <v>0.9999998841570589</v>
       </c>
       <c r="R21">
-        <v>0.9999998413191479</v>
+        <v>1.000000184764858</v>
       </c>
       <c r="S21">
-        <v>0.9999981622937937</v>
+        <v>1.000002141123259</v>
       </c>
       <c r="T21">
-        <v>0.9999998413191479</v>
+        <v>1.000000184764858</v>
       </c>
       <c r="U21">
-        <v>0.999999574257694</v>
+        <v>1.000000496380122</v>
       </c>
       <c r="V21">
-        <v>1.000000421436034</v>
+        <v>0.9999995095342392</v>
       </c>
       <c r="W21">
-        <v>0.9999996241691335</v>
+        <v>1.000000439325185</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999798779190785</v>
+        <v>1.000007393278709</v>
       </c>
       <c r="D22">
-        <v>0.9999959790923241</v>
+        <v>1.000001480324157</v>
       </c>
       <c r="E22">
-        <v>1.000013417029376</v>
+        <v>0.9999950707193996</v>
       </c>
       <c r="F22">
-        <v>1.000005031290864</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="G22">
-        <v>0.9999798779190785</v>
+        <v>1.000007393278709</v>
       </c>
       <c r="H22">
-        <v>0.9999956769890658</v>
+        <v>1.000001589426487</v>
       </c>
       <c r="I22">
-        <v>1.000007469503847</v>
+        <v>0.999997254905705</v>
       </c>
       <c r="J22">
-        <v>1.000013417029376</v>
+        <v>0.9999950707193996</v>
       </c>
       <c r="K22">
-        <v>1.000013417029376</v>
+        <v>0.9999950707193996</v>
       </c>
       <c r="L22">
-        <v>0.9999869193405575</v>
+        <v>1.000004808974373</v>
       </c>
       <c r="M22">
-        <v>1.000005031290864</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="N22">
-        <v>1.000013417029376</v>
+        <v>0.9999950707193996</v>
       </c>
       <c r="O22">
-        <v>1.000005031290864</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="P22">
-        <v>0.9999924546049713</v>
+        <v>1.000002773294183</v>
       </c>
       <c r="Q22">
-        <v>1.000000354139965</v>
+        <v>0.9999998713680721</v>
       </c>
       <c r="R22">
-        <v>0.999999442079773</v>
+        <v>1.000000205769255</v>
       </c>
       <c r="S22">
-        <v>0.9999935287330027</v>
+        <v>1.000002378671618</v>
       </c>
       <c r="T22">
-        <v>0.999999442079773</v>
+        <v>1.000000205769255</v>
       </c>
       <c r="U22">
-        <v>0.9999985008070962</v>
+        <v>1.000000551683563</v>
       </c>
       <c r="V22">
-        <v>1.000001484051552</v>
+        <v>0.9999994554907305</v>
       </c>
       <c r="W22">
-        <v>0.9999986753069972</v>
+        <v>1.000000488031018</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000029761041818</v>
+      </c>
+      <c r="D23">
+        <v>1.000005955945437</v>
+      </c>
+      <c r="E23">
+        <v>0.9999801582747998</v>
+      </c>
+      <c r="F23">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="G23">
+        <v>1.000029761041818</v>
+      </c>
+      <c r="H23">
+        <v>1.000006395863271</v>
+      </c>
+      <c r="I23">
+        <v>0.999988954546525</v>
+      </c>
+      <c r="J23">
+        <v>0.9999801582747998</v>
+      </c>
+      <c r="K23">
+        <v>0.9999801582747998</v>
+      </c>
+      <c r="L23">
+        <v>1.000019351654928</v>
+      </c>
+      <c r="M23">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="N23">
+        <v>0.9999801582747998</v>
+      </c>
+      <c r="O23">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="P23">
+        <v>1.00001116060297</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999994780136968</v>
+      </c>
+      <c r="R23">
+        <v>1.00000082649358</v>
+      </c>
+      <c r="S23">
+        <v>1.000009572356404</v>
+      </c>
+      <c r="T23">
+        <v>1.00000082649358</v>
+      </c>
+      <c r="U23">
+        <v>1.000002218836003</v>
+      </c>
+      <c r="V23">
+        <v>0.9999978067237624</v>
+      </c>
+      <c r="W23">
+        <v>1.000001962206878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="D24">
+        <v>0.9999775195144412</v>
+      </c>
+      <c r="E24">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="F24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="G24">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="H24">
+        <v>0.9999758503963181</v>
+      </c>
+      <c r="I24">
+        <v>1.000041724880303</v>
+      </c>
+      <c r="J24">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="K24">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="L24">
+        <v>0.9999269313745373</v>
+      </c>
+      <c r="M24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="N24">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="O24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="P24">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="Q24">
+        <v>1.000001973848512</v>
+      </c>
+      <c r="R24">
+        <v>0.999996876078948</v>
+      </c>
+      <c r="S24">
+        <v>0.9999638533125929</v>
+      </c>
+      <c r="T24">
+        <v>0.999996876078948</v>
+      </c>
+      <c r="U24">
+        <v>0.9999916196582905</v>
+      </c>
+      <c r="V24">
+        <v>1.000008279465709</v>
+      </c>
+      <c r="W24">
+        <v>0.9999925939628937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9999695108552538</v>
+      </c>
+      <c r="D25">
+        <v>0.9999939036952519</v>
+      </c>
+      <c r="E25">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="F25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="G25">
+        <v>0.9999695108552538</v>
+      </c>
+      <c r="H25">
+        <v>0.9999934502044738</v>
+      </c>
+      <c r="I25">
+        <v>1.00001131671161</v>
+      </c>
+      <c r="J25">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="K25">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="L25">
+        <v>0.9999801782131964</v>
+      </c>
+      <c r="M25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="N25">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="O25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="P25">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="Q25">
+        <v>1.000000538247724</v>
+      </c>
+      <c r="R25">
+        <v>0.999999153364432</v>
+      </c>
+      <c r="S25">
+        <v>0.9999901957835672</v>
+      </c>
+      <c r="T25">
+        <v>0.999999153364432</v>
+      </c>
+      <c r="U25">
+        <v>0.9999977275744425</v>
+      </c>
+      <c r="V25">
+        <v>1.000002246648968</v>
+      </c>
+      <c r="W25">
+        <v>0.9999979919011002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="D26">
+        <v>1.002138463749927</v>
+      </c>
+      <c r="E26">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="F26">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="G26">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="H26">
+        <v>1.002297521799991</v>
+      </c>
+      <c r="I26">
+        <v>0.9960311143477768</v>
+      </c>
+      <c r="J26">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="K26">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="L26">
+        <v>1.006952199535176</v>
+      </c>
+      <c r="M26">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="N26">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="O26">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="P26">
+        <v>1.004009616378386</v>
+      </c>
+      <c r="Q26">
+        <v>0.9998122242064578</v>
+      </c>
+      <c r="R26">
+        <v>1.000297011520218</v>
+      </c>
+      <c r="S26">
+        <v>1.003438918185588</v>
+      </c>
+      <c r="T26">
+        <v>1.000297011520218</v>
+      </c>
+      <c r="U26">
+        <v>1.000797139090161</v>
+      </c>
+      <c r="V26">
+        <v>0.9992120716329055</v>
+      </c>
+      <c r="W26">
+        <v>1.000704657575806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="D27">
+        <v>1.000569981731863</v>
+      </c>
+      <c r="E27">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="F27">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="G27">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="H27">
+        <v>1.000612369423445</v>
+      </c>
+      <c r="I27">
+        <v>0.9989421471445173</v>
+      </c>
+      <c r="J27">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="K27">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="L27">
+        <v>1.001853009877402</v>
+      </c>
+      <c r="M27">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="N27">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="O27">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="P27">
+        <v>1.001068705969451</v>
+      </c>
+      <c r="Q27">
+        <v>0.999949949019413</v>
+      </c>
+      <c r="R27">
+        <v>1.000079162850809</v>
+      </c>
+      <c r="S27">
+        <v>1.000916593787449</v>
+      </c>
+      <c r="T27">
+        <v>1.000079162850809</v>
+      </c>
+      <c r="U27">
+        <v>1.000212464493968</v>
+      </c>
+      <c r="V27">
+        <v>0.9997899869178797</v>
+      </c>
+      <c r="W27">
+        <v>1.000187815668129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9987268898949458</v>
+      </c>
+      <c r="D28">
+        <v>0.9997453795473386</v>
+      </c>
+      <c r="E28">
+        <v>1.000848740562993</v>
+      </c>
+      <c r="F28">
+        <v>1.000318270451064</v>
+      </c>
+      <c r="G28">
+        <v>0.9987268898949458</v>
+      </c>
+      <c r="H28">
+        <v>0.9997264393399438</v>
+      </c>
+      <c r="I28">
+        <v>1.000472567868715</v>
+      </c>
+      <c r="J28">
+        <v>1.000848740562993</v>
+      </c>
+      <c r="K28">
+        <v>1.000848740562993</v>
+      </c>
+      <c r="L28">
+        <v>0.9991722247640683</v>
+      </c>
+      <c r="M28">
+        <v>1.000318270451064</v>
+      </c>
+      <c r="N28">
+        <v>1.000848740562993</v>
+      </c>
+      <c r="O28">
+        <v>1.000318270451064</v>
+      </c>
+      <c r="P28">
+        <v>0.999522580173005</v>
+      </c>
+      <c r="Q28">
+        <v>1.000022354895504</v>
+      </c>
+      <c r="R28">
+        <v>0.9999646336363343</v>
+      </c>
+      <c r="S28">
+        <v>0.9995905332286513</v>
+      </c>
+      <c r="T28">
+        <v>0.9999646336363343</v>
+      </c>
+      <c r="U28">
+        <v>0.9999050850622366</v>
+      </c>
+      <c r="V28">
+        <v>1.000093816162388</v>
+      </c>
+      <c r="W28">
+        <v>0.9999160978600167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.998963466652855</v>
+      </c>
+      <c r="D29">
+        <v>0.9997926949142367</v>
+      </c>
+      <c r="E29">
+        <v>1.000691022201087</v>
+      </c>
+      <c r="F29">
+        <v>1.000259128756796</v>
+      </c>
+      <c r="G29">
+        <v>0.998963466652855</v>
+      </c>
+      <c r="H29">
+        <v>0.9997772743842585</v>
+      </c>
+      <c r="I29">
+        <v>1.000384752862512</v>
+      </c>
+      <c r="J29">
+        <v>1.000691022201087</v>
+      </c>
+      <c r="K29">
+        <v>1.000691022201087</v>
+      </c>
+      <c r="L29">
+        <v>0.9993260460856327</v>
+      </c>
+      <c r="M29">
+        <v>1.000259128756796</v>
+      </c>
+      <c r="N29">
+        <v>1.000691022201087</v>
+      </c>
+      <c r="O29">
+        <v>1.000259128756796</v>
+      </c>
+      <c r="P29">
+        <v>0.9996112977048257</v>
+      </c>
+      <c r="Q29">
+        <v>1.000018201570527</v>
+      </c>
+      <c r="R29">
+        <v>0.999971205870246</v>
+      </c>
+      <c r="S29">
+        <v>0.9996666232646366</v>
+      </c>
+      <c r="T29">
+        <v>0.999971205870246</v>
+      </c>
+      <c r="U29">
+        <v>0.9999227229987491</v>
+      </c>
+      <c r="V29">
+        <v>1.000076382839217</v>
+      </c>
+      <c r="W29">
+        <v>0.9999316893267718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9994492277827457</v>
+      </c>
+      <c r="D30">
+        <v>0.9998898463554926</v>
+      </c>
+      <c r="E30">
+        <v>1.000367182294833</v>
+      </c>
+      <c r="F30">
+        <v>1.000137693002349</v>
+      </c>
+      <c r="G30">
+        <v>0.9994492277827457</v>
+      </c>
+      <c r="H30">
+        <v>0.9998816525409744</v>
+      </c>
+      <c r="I30">
+        <v>1.00020444272696</v>
+      </c>
+      <c r="J30">
+        <v>1.000367182294833</v>
+      </c>
+      <c r="K30">
+        <v>1.000367182294833</v>
+      </c>
+      <c r="L30">
+        <v>0.9996418871357926</v>
+      </c>
+      <c r="M30">
+        <v>1.000137693002349</v>
+      </c>
+      <c r="N30">
+        <v>1.000367182294833</v>
+      </c>
+      <c r="O30">
+        <v>1.000137693002349</v>
+      </c>
+      <c r="P30">
+        <v>0.9997934603925471</v>
+      </c>
+      <c r="Q30">
+        <v>1.000009672771661</v>
+      </c>
+      <c r="R30">
+        <v>0.9999847010266425</v>
+      </c>
+      <c r="S30">
+        <v>0.9998228577753562</v>
+      </c>
+      <c r="T30">
+        <v>0.9999847010266425</v>
+      </c>
+      <c r="U30">
+        <v>0.9999589389052255</v>
+      </c>
+      <c r="V30">
+        <v>1.000040587583147</v>
+      </c>
+      <c r="W30">
+        <v>0.999963703105187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9993668731649471</v>
+      </c>
+      <c r="D31">
+        <v>0.9998733765108533</v>
+      </c>
+      <c r="E31">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="F31">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="G31">
+        <v>0.9993668731649471</v>
+      </c>
+      <c r="H31">
+        <v>0.9998639573836305</v>
+      </c>
+      <c r="I31">
+        <v>1.000235011284649</v>
+      </c>
+      <c r="J31">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="K31">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="L31">
+        <v>0.9995883404928871</v>
+      </c>
+      <c r="M31">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="N31">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="O31">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="P31">
+        <v>0.9997625766375871</v>
+      </c>
+      <c r="Q31">
+        <v>1.000011118746929</v>
+      </c>
+      <c r="R31">
+        <v>0.9999824132141587</v>
+      </c>
+      <c r="S31">
+        <v>0.9997963702196015</v>
+      </c>
+      <c r="T31">
+        <v>0.9999824132141587</v>
+      </c>
+      <c r="U31">
+        <v>0.9999527992565267</v>
+      </c>
+      <c r="V31">
+        <v>1.000046656678682</v>
+      </c>
+      <c r="W31">
+        <v>0.9999582756780905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9987327567123285</v>
+      </c>
+      <c r="D32">
+        <v>0.9997465531506848</v>
+      </c>
+      <c r="E32">
+        <v>1.00084483</v>
+      </c>
+      <c r="F32">
+        <v>1.000316801369863</v>
+      </c>
+      <c r="G32">
+        <v>0.9987327567123285</v>
+      </c>
+      <c r="H32">
+        <v>0.9997276994520549</v>
+      </c>
+      <c r="I32">
+        <v>1.00047039</v>
+      </c>
+      <c r="J32">
+        <v>1.00084483</v>
+      </c>
+      <c r="K32">
+        <v>1.00084483</v>
+      </c>
+      <c r="L32">
+        <v>0.9991760419178082</v>
+      </c>
+      <c r="M32">
+        <v>1.000316801369863</v>
+      </c>
+      <c r="N32">
+        <v>1.00084483</v>
+      </c>
+      <c r="O32">
+        <v>1.000316801369863</v>
+      </c>
+      <c r="P32">
+        <v>0.9995247790410959</v>
+      </c>
+      <c r="Q32">
+        <v>1.000022250410959</v>
+      </c>
+      <c r="R32">
+        <v>0.9999647960273973</v>
+      </c>
+      <c r="S32">
+        <v>0.9995924191780823</v>
+      </c>
+      <c r="T32">
+        <v>0.9999647960273973</v>
+      </c>
+      <c r="U32">
+        <v>0.9999055218835617</v>
+      </c>
+      <c r="V32">
+        <v>1.00009338350685</v>
+      </c>
+      <c r="W32">
+        <v>0.9999164842465754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.005503925263158</v>
+      </c>
+      <c r="D33">
+        <v>1.001100786315789</v>
+      </c>
+      <c r="E33">
+        <v>0.9963307184210525</v>
+      </c>
+      <c r="F33">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="G33">
+        <v>1.005503925263158</v>
+      </c>
+      <c r="H33">
+        <v>1.001182667368421</v>
+      </c>
+      <c r="I33">
+        <v>0.9979569942105263</v>
+      </c>
+      <c r="J33">
+        <v>0.9963307184210525</v>
+      </c>
+      <c r="K33">
+        <v>0.9963307184210525</v>
+      </c>
+      <c r="L33">
+        <v>1.003578696842105</v>
+      </c>
+      <c r="M33">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="N33">
+        <v>0.9963307184210525</v>
+      </c>
+      <c r="O33">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="P33">
+        <v>1.002063969473684</v>
+      </c>
+      <c r="Q33">
+        <v>0.9999033405263158</v>
+      </c>
+      <c r="R33">
+        <v>1.000152885789473</v>
+      </c>
+      <c r="S33">
+        <v>1.001770202105263</v>
+      </c>
+      <c r="T33">
+        <v>1.000152885789474</v>
+      </c>
+      <c r="U33">
+        <v>1.000410331184211</v>
+      </c>
+      <c r="V33">
+        <v>0.999594408631579</v>
+      </c>
+      <c r="W33">
+        <v>1.000362726973684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="D34">
+        <v>0.9997777268421051</v>
+      </c>
+      <c r="E34">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="F34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="G34">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="H34">
+        <v>0.9997611915789473</v>
+      </c>
+      <c r="I34">
+        <v>1.000412534210526</v>
+      </c>
+      <c r="J34">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="K34">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="L34">
+        <v>0.999277387894737</v>
+      </c>
+      <c r="M34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="N34">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="O34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="P34">
+        <v>0.9995832292105262</v>
+      </c>
+      <c r="Q34">
+        <v>1.000019512894737</v>
+      </c>
+      <c r="R34">
+        <v>0.9999691256140352</v>
+      </c>
+      <c r="S34">
+        <v>0.9996425499999999</v>
+      </c>
+      <c r="T34">
+        <v>0.9999691256140352</v>
+      </c>
+      <c r="U34">
+        <v>0.9999171421052632</v>
+      </c>
+      <c r="V34">
+        <v>1.000081897368421</v>
+      </c>
+      <c r="W34">
+        <v>0.9999267564473683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9977062349834561</v>
+      </c>
+      <c r="D35">
+        <v>0.9995412479143915</v>
+      </c>
+      <c r="E35">
+        <v>1.001529176207897</v>
+      </c>
+      <c r="F35">
+        <v>1.000573429002178</v>
+      </c>
+      <c r="G35">
+        <v>0.9977062349834561</v>
+      </c>
+      <c r="H35">
+        <v>0.9995071269892896</v>
+      </c>
+      <c r="I35">
+        <v>1.000851441977582</v>
+      </c>
+      <c r="J35">
+        <v>1.001529176207897</v>
+      </c>
+      <c r="K35">
+        <v>1.001529176207897</v>
+      </c>
+      <c r="L35">
+        <v>0.9985085827699128</v>
+      </c>
+      <c r="M35">
+        <v>1.000573429002178</v>
+      </c>
+      <c r="N35">
+        <v>1.001529176207897</v>
+      </c>
+      <c r="O35">
+        <v>1.000573429002178</v>
+      </c>
+      <c r="P35">
+        <v>0.9991398319928169</v>
+      </c>
+      <c r="Q35">
+        <v>1.000040277995734</v>
+      </c>
+      <c r="R35">
+        <v>0.9999362800645102</v>
+      </c>
+      <c r="S35">
+        <v>0.9992622636583078</v>
+      </c>
+      <c r="T35">
+        <v>0.9999362800645102</v>
+      </c>
+      <c r="U35">
+        <v>0.9998289917957051</v>
+      </c>
+      <c r="V35">
+        <v>1.000169028678144</v>
+      </c>
+      <c r="W35">
+        <v>0.9998488336058605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999997290498686</v>
+      </c>
+      <c r="D36">
+        <v>0.999999948037262</v>
+      </c>
+      <c r="E36">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="F36">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="G36">
+        <v>0.9999997290498686</v>
+      </c>
+      <c r="H36">
+        <v>0.99999994309482</v>
+      </c>
+      <c r="I36">
+        <v>1.000000101497391</v>
+      </c>
+      <c r="J36">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="K36">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="L36">
+        <v>0.9999998252927277</v>
+      </c>
+      <c r="M36">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="N36">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="O36">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998988710074</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000005893483</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999925452</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999136122782</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999925452</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999801826049</v>
+      </c>
+      <c r="V36">
+        <v>1.000000020124801</v>
+      </c>
+      <c r="W36">
+        <v>0.9999999830312434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999942836438702</v>
+      </c>
+      <c r="D37">
+        <v>0.9999988588801481</v>
+      </c>
+      <c r="E37">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="F37">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="G37">
+        <v>0.9999942836438702</v>
+      </c>
+      <c r="H37">
+        <v>0.9999987730733327</v>
+      </c>
+      <c r="I37">
+        <v>1.000002122519421</v>
+      </c>
+      <c r="J37">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="K37">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="L37">
+        <v>0.9999962847585441</v>
+      </c>
+      <c r="M37">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="N37">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="O37">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="P37">
+        <v>0.9999978569040242</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000101618755</v>
+      </c>
+      <c r="R37">
+        <v>0.9999998413191479</v>
+      </c>
+      <c r="S37">
+        <v>0.9999981622937937</v>
+      </c>
+      <c r="T37">
+        <v>0.9999998413191479</v>
+      </c>
+      <c r="U37">
+        <v>0.999999574257694</v>
+      </c>
+      <c r="V37">
+        <v>1.000000421436034</v>
+      </c>
+      <c r="W37">
+        <v>0.9999996241691335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999798779190785</v>
+      </c>
+      <c r="D38">
+        <v>0.9999959790923241</v>
+      </c>
+      <c r="E38">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="F38">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="G38">
+        <v>0.9999798779190785</v>
+      </c>
+      <c r="H38">
+        <v>0.9999956769890658</v>
+      </c>
+      <c r="I38">
+        <v>1.000007469503847</v>
+      </c>
+      <c r="J38">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="K38">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="L38">
+        <v>0.9999869193405575</v>
+      </c>
+      <c r="M38">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="N38">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="O38">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="P38">
+        <v>0.9999924546049713</v>
+      </c>
+      <c r="Q38">
+        <v>1.000000354139965</v>
+      </c>
+      <c r="R38">
+        <v>0.999999442079773</v>
+      </c>
+      <c r="S38">
+        <v>0.9999935287330027</v>
+      </c>
+      <c r="T38">
+        <v>0.999999442079773</v>
+      </c>
+      <c r="U38">
+        <v>0.9999985008070962</v>
+      </c>
+      <c r="V38">
+        <v>1.000001484051552</v>
+      </c>
+      <c r="W38">
+        <v>0.9999986753069972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999528579123589</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999905748403475</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000031426453913</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000011783923545</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9999528579123589</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999898667408192</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000017498603616</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000031426453913</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000031426453913</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999693546599551</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000011783923545</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000031426453913</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000011783923545</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999982320917952</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000000825332182</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.999998689429939</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999848361922411</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.999998689429939</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.999996483757659</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.00000347229691</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999968933822625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.999629002426507</v>
+      </c>
+      <c r="D40">
+        <v>0.9999258026177467</v>
+      </c>
+      <c r="E40">
+        <v>1.000247329535183</v>
+      </c>
+      <c r="F40">
+        <v>1.000092748055137</v>
+      </c>
+      <c r="G40">
+        <v>0.999629002426507</v>
+      </c>
+      <c r="H40">
+        <v>0.999920282740687</v>
+      </c>
+      <c r="I40">
+        <v>1.00013771527853</v>
+      </c>
+      <c r="J40">
+        <v>1.000247329535183</v>
+      </c>
+      <c r="K40">
+        <v>1.000247329535183</v>
+      </c>
+      <c r="L40">
+        <v>0.9997587762083796</v>
+      </c>
+      <c r="M40">
+        <v>1.000092748055137</v>
+      </c>
+      <c r="N40">
+        <v>1.000247329535183</v>
+      </c>
+      <c r="O40">
+        <v>1.000092748055137</v>
+      </c>
+      <c r="P40">
+        <v>0.999860875240822</v>
+      </c>
+      <c r="Q40">
+        <v>1.000006515397912</v>
+      </c>
+      <c r="R40">
+        <v>0.9999896933389424</v>
+      </c>
+      <c r="S40">
+        <v>0.999880677740777</v>
+      </c>
+      <c r="T40">
+        <v>0.9999896933389424</v>
+      </c>
+      <c r="U40">
+        <v>0.9999723406893786</v>
+      </c>
+      <c r="V40">
+        <v>1.000027338458539</v>
+      </c>
+      <c r="W40">
+        <v>0.9999755506146635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9981895315339689</v>
+      </c>
+      <c r="D41">
+        <v>0.9996379089951987</v>
+      </c>
+      <c r="E41">
+        <v>1.001206977771434</v>
+      </c>
+      <c r="F41">
+        <v>1.000452618676958</v>
+      </c>
+      <c r="G41">
+        <v>0.9981895315339689</v>
+      </c>
+      <c r="H41">
+        <v>0.9996109752340296</v>
+      </c>
+      <c r="I41">
+        <v>1.000672030876778</v>
+      </c>
+      <c r="J41">
+        <v>1.001206977771434</v>
+      </c>
+      <c r="K41">
+        <v>1.001206977771434</v>
+      </c>
+      <c r="L41">
+        <v>0.9988228239116659</v>
+      </c>
+      <c r="M41">
+        <v>1.000452618676958</v>
+      </c>
+      <c r="N41">
+        <v>1.001206977771434</v>
+      </c>
+      <c r="O41">
+        <v>1.000452618676958</v>
+      </c>
+      <c r="P41">
+        <v>0.9993210751054635</v>
+      </c>
+      <c r="Q41">
+        <v>1.000031796955494</v>
+      </c>
+      <c r="R41">
+        <v>0.9999497093274538</v>
+      </c>
+      <c r="S41">
+        <v>0.9994177084816522</v>
+      </c>
+      <c r="T41">
+        <v>0.9999497093274536</v>
+      </c>
+      <c r="U41">
+        <v>0.9998650258040976</v>
+      </c>
+      <c r="V41">
+        <v>1.000133416197565</v>
+      </c>
+      <c r="W41">
+        <v>0.9998806857096239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9974746709298964</v>
+      </c>
+      <c r="D42">
+        <v>0.9994949366576271</v>
+      </c>
+      <c r="E42">
+        <v>1.001683553238691</v>
+      </c>
+      <c r="F42">
+        <v>1.000631330899744</v>
+      </c>
+      <c r="G42">
+        <v>0.9974746709298964</v>
+      </c>
+      <c r="H42">
+        <v>0.9994573702264112</v>
+      </c>
+      <c r="I42">
+        <v>1.000937385631759</v>
+      </c>
+      <c r="J42">
+        <v>1.001683553238691</v>
+      </c>
+      <c r="K42">
+        <v>1.001683553238691</v>
+      </c>
+      <c r="L42">
+        <v>0.9983580189904943</v>
+      </c>
+      <c r="M42">
+        <v>1.000631330899744</v>
+      </c>
+      <c r="N42">
+        <v>1.001683553238691</v>
+      </c>
+      <c r="O42">
+        <v>1.000631330899744</v>
+      </c>
+      <c r="P42">
+        <v>0.9990530009148202</v>
+      </c>
+      <c r="Q42">
+        <v>1.000044350563078</v>
+      </c>
+      <c r="R42">
+        <v>0.9999298516894438</v>
+      </c>
+      <c r="S42">
+        <v>0.9991877906853506</v>
+      </c>
+      <c r="T42">
+        <v>0.9999298516894437</v>
+      </c>
+      <c r="U42">
+        <v>0.9998117313236856</v>
+      </c>
+      <c r="V42">
+        <v>1.000186095706687</v>
+      </c>
+      <c r="W42">
+        <v>0.9998335746842959</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000043567992868</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="D3">
-        <v>0.9999346472413927</v>
+        <v>0.9999998560500029</v>
       </c>
       <c r="E3">
-        <v>1.000016338583803</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="F3">
-        <v>1.000043567992868</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="G3">
-        <v>0.999985958513506</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="H3">
-        <v>1.00002425914719</v>
+        <v>0.9999998444390877</v>
       </c>
       <c r="I3">
-        <v>1.000043567992868</v>
+        <v>1.000000272084118</v>
       </c>
       <c r="J3">
-        <v>0.9999346472413927</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="K3">
-        <v>0.9999869315128047</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="L3">
-        <v>1.000016338583803</v>
+        <v>0.9999995263966363</v>
       </c>
       <c r="M3">
-        <v>0.9999575093749052</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="N3">
-        <v>1.000043567992868</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="O3">
-        <v>1.000016338583803</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="P3">
-        <v>0.9999754929125977</v>
+        <v>0.9999997264682813</v>
       </c>
       <c r="Q3">
-        <v>1.000001148548654</v>
+        <v>1.000000014032502</v>
       </c>
       <c r="R3">
-        <v>0.999998184606021</v>
+        <v>0.9999999796486655</v>
       </c>
       <c r="S3">
-        <v>0.9999789814462338</v>
+        <v>0.9999997657918834</v>
       </c>
       <c r="T3">
-        <v>0.9999981846060209</v>
+        <v>0.9999999796486655</v>
       </c>
       <c r="U3">
-        <v>0.9999951280828921</v>
+        <v>0.9999999458462711</v>
       </c>
       <c r="V3">
-        <v>1.000004816064887</v>
+        <v>1.000000053878904</v>
       </c>
       <c r="W3">
-        <v>0.999995693868784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999999526927197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084107857689</v>
+        <v>0.999629002426507</v>
       </c>
       <c r="D4">
-        <v>0.9998738372178897</v>
+        <v>0.9999258026177467</v>
       </c>
       <c r="E4">
-        <v>1.000031540050173</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="F4">
-        <v>1.000084107857689</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="G4">
-        <v>0.9999728921694275</v>
+        <v>0.999629002426507</v>
       </c>
       <c r="H4">
-        <v>1.000046830123802</v>
+        <v>0.999920282740687</v>
       </c>
       <c r="I4">
-        <v>1.000084107857689</v>
+        <v>1.00013771527853</v>
       </c>
       <c r="J4">
-        <v>0.9998738372178897</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="K4">
-        <v>0.9999747691747497</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="L4">
-        <v>1.000031540050173</v>
+        <v>0.9997587762083796</v>
       </c>
       <c r="M4">
-        <v>0.9999179715240555</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="N4">
-        <v>1.000084107857689</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="O4">
-        <v>1.000031540050173</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="P4">
-        <v>0.9999526886340313</v>
+        <v>0.999860875240822</v>
       </c>
       <c r="Q4">
-        <v>1.0000022161098</v>
+        <v>1.000006515397912</v>
       </c>
       <c r="R4">
-        <v>0.9999964950419172</v>
+        <v>0.9999896933389424</v>
       </c>
       <c r="S4">
-        <v>0.99995942314583</v>
+        <v>0.999880677740777</v>
       </c>
       <c r="T4">
-        <v>0.9999964950419172</v>
+        <v>0.9999896933389424</v>
       </c>
       <c r="U4">
-        <v>0.9999905943237948</v>
+        <v>0.9999723406893786</v>
       </c>
       <c r="V4">
-        <v>1.000009297030574</v>
+        <v>1.000027338458539</v>
       </c>
       <c r="W4">
-        <v>0.9999916860209949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9999755506146635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000161185399341</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="D5">
-        <v>0.9997582243656344</v>
+        <v>0.9998620677593647</v>
       </c>
       <c r="E5">
-        <v>1.000060438927275</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="F5">
-        <v>1.000161185399341</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="G5">
-        <v>0.999948048934764</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="H5">
-        <v>1.000089744286274</v>
+        <v>0.999851807946684</v>
       </c>
       <c r="I5">
-        <v>1.000161185399341</v>
+        <v>1.000256001001442</v>
       </c>
       <c r="J5">
-        <v>0.9997582243656344</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="K5">
-        <v>0.9999516462883216</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="L5">
-        <v>1.000060438927275</v>
+        <v>0.9995515751008648</v>
       </c>
       <c r="M5">
-        <v>0.9998428052593447</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="N5">
-        <v>1.000161185399341</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="O5">
-        <v>1.000060438927275</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="P5">
-        <v>0.9999093316464546</v>
+        <v>0.9997413738364544</v>
       </c>
       <c r="Q5">
-        <v>1.000004243931019</v>
+        <v>1.000012112319883</v>
       </c>
       <c r="R5">
-        <v>0.9999932828974166</v>
+        <v>0.9999808420124876</v>
       </c>
       <c r="S5">
-        <v>0.9999222374092244</v>
+        <v>0.9997781852065311</v>
       </c>
       <c r="T5">
-        <v>0.9999932828974166</v>
+        <v>0.9999808420124876</v>
       </c>
       <c r="U5">
-        <v>0.9999819744067535</v>
+        <v>0.9999485834960367</v>
       </c>
       <c r="V5">
-        <v>1.000017816605271</v>
+        <v>1.00005082246974</v>
       </c>
       <c r="W5">
-        <v>0.9999840665485286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9999545493173625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236399566401</v>
+        <v>0.9977062349834561</v>
       </c>
       <c r="D6">
-        <v>0.9996453958735342</v>
+        <v>0.9995412479143915</v>
       </c>
       <c r="E6">
-        <v>1.000088647805852</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="F6">
-        <v>1.000236399566401</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="G6">
-        <v>0.9999238044728398</v>
+        <v>0.9977062349834561</v>
       </c>
       <c r="H6">
-        <v>1.000131630565799</v>
+        <v>0.9995071269892896</v>
       </c>
       <c r="I6">
-        <v>1.000236399566401</v>
+        <v>1.000851441977582</v>
       </c>
       <c r="J6">
-        <v>0.9996453958735342</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="K6">
-        <v>0.9999290756802378</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="L6">
-        <v>1.000088647805852</v>
+        <v>0.9985085827699128</v>
       </c>
       <c r="M6">
-        <v>0.9997694417389956</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="N6">
-        <v>1.000236399566401</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="O6">
-        <v>1.000088647805852</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="P6">
-        <v>0.999867021839693</v>
+        <v>0.9991398319928169</v>
       </c>
       <c r="Q6">
-        <v>1.000006226139346</v>
+        <v>1.000040277995734</v>
       </c>
       <c r="R6">
-        <v>0.9999901477485956</v>
+        <v>0.9999362800645102</v>
       </c>
       <c r="S6">
-        <v>0.9998859493840753</v>
+        <v>0.9992622636583078</v>
       </c>
       <c r="T6">
-        <v>0.9999901477485956</v>
+        <v>0.9999362800645102</v>
       </c>
       <c r="U6">
-        <v>0.9999735619296567</v>
+        <v>0.9998289917957051</v>
       </c>
       <c r="V6">
-        <v>1.000026129457006</v>
+        <v>1.000169028678144</v>
       </c>
       <c r="W6">
-        <v>0.9999766304386888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9998488336058605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000001292768302</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="D7">
-        <v>0.9999980594444019</v>
+        <v>0.9999848006543612</v>
       </c>
       <c r="E7">
-        <v>1.000000486165669</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="F7">
-        <v>1.000001292768302</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="G7">
-        <v>0.9999995843807525</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="H7">
-        <v>1.000000721153562</v>
+        <v>0.9999836691789404</v>
       </c>
       <c r="I7">
-        <v>1.000001292768302</v>
+        <v>1.000028213653841</v>
       </c>
       <c r="J7">
-        <v>0.9999980594444019</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="K7">
-        <v>0.9999996141372133</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="L7">
-        <v>1.000000486165669</v>
+        <v>0.9999505809985033</v>
       </c>
       <c r="M7">
-        <v>0.9999987395720005</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="N7">
-        <v>1.000001292768302</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="O7">
-        <v>1.000000486165669</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="P7">
-        <v>0.9999992728050355</v>
+        <v>0.9999714975026923</v>
       </c>
       <c r="Q7">
-        <v>1.000000035273211</v>
+        <v>1.000001335943438</v>
       </c>
       <c r="R7">
-        <v>0.9999999461261243</v>
+        <v>0.9999978887736009</v>
       </c>
       <c r="S7">
-        <v>0.9999993766636078</v>
+        <v>0.9999755547281084</v>
       </c>
       <c r="T7">
-        <v>0.9999999461261243</v>
+        <v>0.9999978887736009</v>
       </c>
       <c r="U7">
-        <v>0.9999998556897813</v>
+        <v>0.9999943338749357</v>
       </c>
       <c r="V7">
-        <v>1.000000143105485</v>
+        <v>1.000005601363032</v>
       </c>
       <c r="W7">
-        <v>0.9999998729734463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.999994991689298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000000486009434</v>
+        <v>0.9999942836438702</v>
       </c>
       <c r="D8">
-        <v>0.9999992693106468</v>
+        <v>0.9999988588801481</v>
       </c>
       <c r="E8">
-        <v>1.000000183625916</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="F8">
-        <v>1.000000486009434</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="G8">
-        <v>0.9999998444390877</v>
+        <v>0.9999942836438702</v>
       </c>
       <c r="H8">
-        <v>1.000000272084118</v>
+        <v>0.9999987730733327</v>
       </c>
       <c r="I8">
-        <v>1.000000486009434</v>
+        <v>1.000002122519421</v>
       </c>
       <c r="J8">
-        <v>0.9999992693106468</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="K8">
-        <v>0.9999998560500029</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="L8">
-        <v>1.000000183625916</v>
+        <v>0.9999962847585441</v>
       </c>
       <c r="M8">
-        <v>0.999999526396636</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="N8">
-        <v>1.000000486009434</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="O8">
-        <v>1.000000183625916</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="P8">
-        <v>0.9999997264682813</v>
+        <v>0.9999978569040242</v>
       </c>
       <c r="Q8">
-        <v>1.000000014032502</v>
+        <v>1.000000101618755</v>
       </c>
       <c r="R8">
-        <v>0.9999999796486655</v>
+        <v>0.9999998413191479</v>
       </c>
       <c r="S8">
-        <v>0.9999997657918834</v>
+        <v>0.9999981622937937</v>
       </c>
       <c r="T8">
-        <v>0.9999999796486655</v>
+        <v>0.9999998413191479</v>
       </c>
       <c r="U8">
-        <v>0.9999999458462711</v>
+        <v>0.999999574257694</v>
       </c>
       <c r="V8">
-        <v>1.000000053878904</v>
+        <v>1.000000421436034</v>
       </c>
       <c r="W8">
-        <v>0.9999999526927196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999996241691335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999955621507089</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="D9">
-        <v>1.00000665505566</v>
+        <v>0.9999747691747497</v>
       </c>
       <c r="E9">
-        <v>0.9999983370882055</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="F9">
-        <v>0.9999955621507089</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="G9">
-        <v>1.000001431225912</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="H9">
-        <v>0.999997530272079</v>
+        <v>0.9999728921694275</v>
       </c>
       <c r="I9">
-        <v>0.9999955621507089</v>
+        <v>1.000046830123802</v>
       </c>
       <c r="J9">
-        <v>1.00000665505566</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="K9">
-        <v>1.000001333410853</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="L9">
-        <v>0.9999983370882055</v>
+        <v>0.9999179715240555</v>
       </c>
       <c r="M9">
-        <v>1.000004328309854</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="N9">
-        <v>0.9999955621507089</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="O9">
-        <v>0.9999983370882055</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="P9">
-        <v>1.000002496071933</v>
+        <v>0.9999526886340313</v>
       </c>
       <c r="Q9">
-        <v>0.9999998841570589</v>
+        <v>1.0000022161098</v>
       </c>
       <c r="R9">
-        <v>1.000000184764858</v>
+        <v>0.9999964950419172</v>
       </c>
       <c r="S9">
-        <v>1.000002141123259</v>
+        <v>0.99995942314583</v>
       </c>
       <c r="T9">
-        <v>1.000000184764858</v>
+        <v>0.9999964950419172</v>
       </c>
       <c r="U9">
-        <v>1.000000496380122</v>
+        <v>0.9999905943237948</v>
       </c>
       <c r="V9">
-        <v>0.9999995095342392</v>
+        <v>1.000009297030574</v>
       </c>
       <c r="W9">
-        <v>1.000000439325185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999916860209949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999950707193996</v>
+        <v>0.9976719766164388</v>
       </c>
       <c r="D10">
-        <v>1.000007393278709</v>
+        <v>0.9995343956960238</v>
       </c>
       <c r="E10">
-        <v>0.9999981533096574</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="F10">
-        <v>0.9999950707193996</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="G10">
-        <v>1.000001589426487</v>
+        <v>0.9976719766164388</v>
       </c>
       <c r="H10">
-        <v>0.999997254905705</v>
+        <v>0.999499765373734</v>
       </c>
       <c r="I10">
-        <v>0.9999950707193996</v>
+        <v>1.00086415776973</v>
       </c>
       <c r="J10">
-        <v>1.000007393278709</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="K10">
-        <v>1.000001480324157</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="L10">
-        <v>0.9999981533096574</v>
+        <v>0.9984863077232052</v>
       </c>
       <c r="M10">
-        <v>1.000004808974373</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="N10">
-        <v>0.9999950707193996</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="O10">
-        <v>0.9999981533096574</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="P10">
-        <v>1.000002773294183</v>
+        <v>0.999126985194591</v>
       </c>
       <c r="Q10">
-        <v>0.9999998713680721</v>
+        <v>1.000040879573239</v>
       </c>
       <c r="R10">
-        <v>1.000000205769255</v>
+        <v>0.9999353283322646</v>
       </c>
       <c r="S10">
-        <v>1.000002378671618</v>
+        <v>0.9992512452543053</v>
       </c>
       <c r="T10">
-        <v>1.000000205769255</v>
+        <v>0.9999353283322646</v>
       </c>
       <c r="U10">
-        <v>1.000000551683563</v>
+        <v>0.9998264375926319</v>
       </c>
       <c r="V10">
-        <v>0.9999994554907305</v>
+        <v>1.000171552995628</v>
       </c>
       <c r="W10">
-        <v>1.000000488031018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9998465756665287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999801582747998</v>
+        <v>0.9974985628805104</v>
       </c>
       <c r="D11">
-        <v>1.000029761041818</v>
+        <v>0.9994997148633441</v>
       </c>
       <c r="E11">
-        <v>0.9999925601641226</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="F11">
-        <v>0.9999801582747998</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="G11">
-        <v>1.000006395863271</v>
+        <v>0.9974985628805104</v>
       </c>
       <c r="H11">
-        <v>0.999988954546525</v>
+        <v>0.9994625021932418</v>
       </c>
       <c r="I11">
-        <v>0.9999801582747998</v>
+        <v>1.000928516244648</v>
       </c>
       <c r="J11">
-        <v>1.000029761041818</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="K11">
-        <v>1.000005955945437</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="L11">
-        <v>0.9999925601641226</v>
+        <v>0.998373551329466</v>
       </c>
       <c r="M11">
-        <v>1.000019351654928</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="N11">
-        <v>0.9999801582747998</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="O11">
-        <v>0.9999925601641226</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="P11">
-        <v>1.00001116060297</v>
+        <v>0.9990619605865808</v>
       </c>
       <c r="Q11">
-        <v>0.9999994780136969</v>
+        <v>1.000043930242946</v>
       </c>
       <c r="R11">
-        <v>1.00000082649358</v>
+        <v>0.999930514587558</v>
       </c>
       <c r="S11">
-        <v>1.000009572356404</v>
+        <v>0.9991954744554677</v>
       </c>
       <c r="T11">
-        <v>1.00000082649358</v>
+        <v>0.999930514587558</v>
       </c>
       <c r="U11">
-        <v>1.000002218836003</v>
+        <v>0.999813511488979</v>
       </c>
       <c r="V11">
-        <v>0.9999978067237624</v>
+        <v>1.000184333709086</v>
       </c>
       <c r="W11">
-        <v>1.000001962206878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.999835148335753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000074918695383</v>
+        <v>0.9992177278526325</v>
       </c>
       <c r="D12">
-        <v>0.9998876122407556</v>
+        <v>0.9998435461157887</v>
       </c>
       <c r="E12">
-        <v>1.000028097300705</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="F12">
-        <v>1.000074918695383</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="G12">
-        <v>0.9999758503963181</v>
+        <v>0.9992177278526325</v>
       </c>
       <c r="H12">
-        <v>1.000041724880303</v>
+        <v>0.9998319090210523</v>
       </c>
       <c r="I12">
-        <v>1.000074918695383</v>
+        <v>1.000290374210524</v>
       </c>
       <c r="J12">
-        <v>0.9998876122407556</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="K12">
-        <v>0.9999775195144412</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="L12">
-        <v>1.000028097300705</v>
+        <v>0.9994913634736857</v>
       </c>
       <c r="M12">
-        <v>0.9999269313745373</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="N12">
-        <v>1.000074918695383</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="O12">
-        <v>1.000028097300705</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="P12">
-        <v>0.9999578547707304</v>
+        <v>0.9997066478842112</v>
       </c>
       <c r="Q12">
-        <v>1.000001973848512</v>
+        <v>1.000013738468421</v>
       </c>
       <c r="R12">
-        <v>0.999996876078948</v>
+        <v>0.9999782697614044</v>
       </c>
       <c r="S12">
-        <v>0.9999638533125929</v>
+        <v>0.9997484015964915</v>
       </c>
       <c r="T12">
-        <v>0.999996876078948</v>
+        <v>0.9999782697614045</v>
       </c>
       <c r="U12">
-        <v>0.9999916196582905</v>
+        <v>0.9999416795763165</v>
       </c>
       <c r="V12">
-        <v>1.000008279465709</v>
+        <v>1.000057646364211</v>
       </c>
       <c r="W12">
-        <v>0.9999925939628937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9999484462526318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000020322947069</v>
+        <v>1.000457854300378</v>
       </c>
       <c r="D13">
-        <v>0.9999695108552538</v>
+        <v>1.000091572154461</v>
       </c>
       <c r="E13">
-        <v>1.000007626290974</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="F13">
-        <v>1.000020322947069</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="G13">
-        <v>0.9999934502044737</v>
+        <v>1.000457854300378</v>
       </c>
       <c r="H13">
-        <v>1.00001131671161</v>
+        <v>1.000098381896423</v>
       </c>
       <c r="I13">
-        <v>1.000020322947069</v>
+        <v>0.9998300471661499</v>
       </c>
       <c r="J13">
-        <v>0.9999695108552538</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="K13">
-        <v>0.9999939036952515</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="L13">
-        <v>1.000007626290974</v>
+        <v>1.000297700971029</v>
       </c>
       <c r="M13">
-        <v>0.9999801782131964</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="N13">
-        <v>1.000020322947069</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="O13">
-        <v>1.000007626290974</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="P13">
-        <v>0.9999885685731137</v>
+        <v>1.000171696612572</v>
       </c>
       <c r="Q13">
-        <v>1.000000538247724</v>
+        <v>0.9999919604105941</v>
       </c>
       <c r="R13">
-        <v>0.999999153364432</v>
+        <v>1.000012718804696</v>
       </c>
       <c r="S13">
-        <v>0.9999901957835671</v>
+        <v>1.000147258373856</v>
       </c>
       <c r="T13">
-        <v>0.999999153364432</v>
+        <v>1.000012718804696</v>
       </c>
       <c r="U13">
-        <v>0.9999977275744424</v>
+        <v>1.000034134577628</v>
       </c>
       <c r="V13">
-        <v>1.000002246648968</v>
+        <v>0.9999662602998912</v>
       </c>
       <c r="W13">
-        <v>0.9999979919011002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000030174690865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9928718018038819</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D14">
-        <v>1.010692306143848</v>
+        <v>0.9991955799999999</v>
       </c>
       <c r="E14">
-        <v>0.9973269266129244</v>
+        <v>1.0026814</v>
       </c>
       <c r="F14">
-        <v>0.9928718018038819</v>
+        <v>1.0010055</v>
       </c>
       <c r="G14">
-        <v>1.002297521799991</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H14">
-        <v>0.9960311143477768</v>
+        <v>0.99913575</v>
       </c>
       <c r="I14">
-        <v>0.9928718018038819</v>
+        <v>1.001492999999998</v>
       </c>
       <c r="J14">
-        <v>1.010692306143848</v>
+        <v>1.0026814</v>
       </c>
       <c r="K14">
-        <v>1.002138463749927</v>
+        <v>1.0026814</v>
       </c>
       <c r="L14">
-        <v>0.9973269266129244</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="M14">
-        <v>1.006952199535176</v>
+        <v>1.0010055</v>
       </c>
       <c r="N14">
-        <v>0.9928718018038819</v>
+        <v>1.0026814</v>
       </c>
       <c r="O14">
-        <v>0.9973269266129244</v>
+        <v>1.0010055</v>
       </c>
       <c r="P14">
-        <v>1.004009616378386</v>
+        <v>0.9984917</v>
       </c>
       <c r="Q14">
-        <v>0.9998122242064578</v>
+        <v>1.000070625</v>
       </c>
       <c r="R14">
-        <v>1.000297011520218</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="S14">
-        <v>1.003438918185588</v>
+        <v>0.9987063833333334</v>
       </c>
       <c r="T14">
-        <v>1.000297011520218</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="U14">
-        <v>1.000797139090161</v>
+        <v>0.9997001374999999</v>
       </c>
       <c r="V14">
-        <v>0.9992120716329055</v>
+        <v>1.00029639</v>
       </c>
       <c r="W14">
-        <v>1.000704657575806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9997349299999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9981000766135258</v>
+        <v>1.0160884</v>
       </c>
       <c r="D15">
-        <v>1.00284988332352</v>
+        <v>1.0032177</v>
       </c>
       <c r="E15">
-        <v>0.9992875286153806</v>
+        <v>0.98927441</v>
       </c>
       <c r="F15">
-        <v>0.9981000766135258</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G15">
-        <v>1.000612369423445</v>
+        <v>1.0160884</v>
       </c>
       <c r="H15">
-        <v>0.9989421471445173</v>
+        <v>1.003457</v>
       </c>
       <c r="I15">
-        <v>0.9981000766135258</v>
+        <v>0.9940281299999999</v>
       </c>
       <c r="J15">
-        <v>1.00284988332352</v>
+        <v>0.98927441</v>
       </c>
       <c r="K15">
-        <v>1.000569981731863</v>
+        <v>0.98927441</v>
       </c>
       <c r="L15">
-        <v>0.9992875286153806</v>
+        <v>1.0104608</v>
       </c>
       <c r="M15">
-        <v>1.001853009877402</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="N15">
-        <v>0.9981000766135258</v>
+        <v>0.98927441</v>
       </c>
       <c r="O15">
-        <v>0.9992875286153806</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="P15">
-        <v>1.001068705969451</v>
+        <v>1.00603315</v>
       </c>
       <c r="Q15">
-        <v>0.999949949019413</v>
+        <v>0.9997174500000001</v>
       </c>
       <c r="R15">
-        <v>1.000079162850809</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="S15">
-        <v>1.000916593787449</v>
+        <v>1.005174433333333</v>
       </c>
       <c r="T15">
-        <v>1.000079162850809</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="U15">
-        <v>1.000212464493968</v>
+        <v>1.0011994275</v>
       </c>
       <c r="V15">
-        <v>0.9997899869178797</v>
+        <v>0.9988144240000001</v>
       </c>
       <c r="W15">
-        <v>1.000187815668129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.00106028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000179893585</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D16">
-        <v>0.9999997290498686</v>
+        <v>0.99919558</v>
       </c>
       <c r="E16">
-        <v>1.000000068692146</v>
+        <v>1.0026814</v>
       </c>
       <c r="F16">
-        <v>1.000000179893585</v>
+        <v>1.0010055</v>
       </c>
       <c r="G16">
-        <v>0.99999994309482</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H16">
-        <v>1.000000101497391</v>
+        <v>0.99913575</v>
       </c>
       <c r="I16">
-        <v>1.000000179893585</v>
+        <v>1.001493</v>
       </c>
       <c r="J16">
-        <v>0.9999997290498686</v>
+        <v>1.0026814</v>
       </c>
       <c r="K16">
-        <v>0.9999999480372619</v>
+        <v>1.0026814</v>
       </c>
       <c r="L16">
-        <v>1.000000068692146</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="M16">
-        <v>0.9999998252927278</v>
+        <v>1.0010055</v>
       </c>
       <c r="N16">
-        <v>1.000000179893585</v>
+        <v>1.0026814</v>
       </c>
       <c r="O16">
-        <v>1.000000068692146</v>
+        <v>1.0010055</v>
       </c>
       <c r="P16">
-        <v>0.9999998988710074</v>
+        <v>0.9984917</v>
       </c>
       <c r="Q16">
-        <v>1.000000005893483</v>
+        <v>1.000070625</v>
       </c>
       <c r="R16">
-        <v>0.9999999925452</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="S16">
-        <v>0.9999999136122782</v>
+        <v>0.9987063833333334</v>
       </c>
       <c r="T16">
-        <v>0.9999999925452</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="U16">
-        <v>0.9999999801826049</v>
+        <v>0.9997001374999999</v>
       </c>
       <c r="V16">
-        <v>1.000000020124801</v>
+        <v>1.00029639</v>
       </c>
       <c r="W16">
-        <v>0.9999999830312434</v>
+        <v>0.99973493</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003810149395</v>
+        <v>1.0110608</v>
       </c>
       <c r="D17">
-        <v>0.9999942836438702</v>
+        <v>1.0022122</v>
       </c>
       <c r="E17">
-        <v>1.000001430164178</v>
+        <v>0.99262616</v>
       </c>
       <c r="F17">
-        <v>1.000003810149395</v>
+        <v>0.99723481</v>
       </c>
       <c r="G17">
-        <v>0.9999987730733326</v>
+        <v>1.0110608</v>
       </c>
       <c r="H17">
-        <v>1.000002122519421</v>
+        <v>1.0023767</v>
       </c>
       <c r="I17">
-        <v>1.000003810149395</v>
+        <v>0.99589434</v>
       </c>
       <c r="J17">
-        <v>0.9999942836438702</v>
+        <v>0.99262616</v>
       </c>
       <c r="K17">
-        <v>0.9999988588801481</v>
+        <v>0.99262616</v>
       </c>
       <c r="L17">
-        <v>1.000001430164178</v>
+        <v>1.0071918</v>
       </c>
       <c r="M17">
-        <v>0.9999962847585441</v>
+        <v>0.99723481</v>
       </c>
       <c r="N17">
-        <v>1.000003810149395</v>
+        <v>0.99262616</v>
       </c>
       <c r="O17">
-        <v>1.000001430164178</v>
+        <v>0.99723481</v>
       </c>
       <c r="P17">
-        <v>0.9999978569040242</v>
+        <v>1.004147805</v>
       </c>
       <c r="Q17">
-        <v>1.000000101618755</v>
+        <v>0.9998057549999999</v>
       </c>
       <c r="R17">
-        <v>0.9999998413191479</v>
+        <v>1.000307256666667</v>
       </c>
       <c r="S17">
-        <v>0.9999981622937937</v>
+        <v>1.003557436666667</v>
       </c>
       <c r="T17">
-        <v>0.9999998413191479</v>
+        <v>1.000307256666667</v>
       </c>
       <c r="U17">
-        <v>0.999999574257694</v>
+        <v>1.0008246175</v>
       </c>
       <c r="V17">
-        <v>1.000000421436034</v>
+        <v>0.9991849260000001</v>
       </c>
       <c r="W17">
-        <v>0.9999996241691335</v>
+        <v>1.0007289525</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013417029376</v>
+        <v>0.9987327567123285</v>
       </c>
       <c r="D18">
-        <v>0.9999798779190787</v>
+        <v>0.9997465531506848</v>
       </c>
       <c r="E18">
-        <v>1.000005031290864</v>
+        <v>1.00084483</v>
       </c>
       <c r="F18">
-        <v>1.000013417029376</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="G18">
-        <v>0.9999956769890658</v>
+        <v>0.9987327567123285</v>
       </c>
       <c r="H18">
-        <v>1.000007469503847</v>
+        <v>0.9997276994520549</v>
       </c>
       <c r="I18">
-        <v>1.000013417029376</v>
+        <v>1.00047039</v>
       </c>
       <c r="J18">
-        <v>0.9999798779190787</v>
+        <v>1.00084483</v>
       </c>
       <c r="K18">
-        <v>0.9999959790923241</v>
+        <v>1.00084483</v>
       </c>
       <c r="L18">
-        <v>1.000005031290864</v>
+        <v>0.9991760419178082</v>
       </c>
       <c r="M18">
-        <v>0.9999869193405574</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="N18">
-        <v>1.000013417029376</v>
+        <v>1.00084483</v>
       </c>
       <c r="O18">
-        <v>1.000005031290864</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="P18">
-        <v>0.9999924546049714</v>
+        <v>0.9995247790410959</v>
       </c>
       <c r="Q18">
-        <v>1.000000354139965</v>
+        <v>1.000022250410959</v>
       </c>
       <c r="R18">
-        <v>0.9999994420797731</v>
+        <v>0.9999647960273973</v>
       </c>
       <c r="S18">
-        <v>0.999993528733003</v>
+        <v>0.9995924191780823</v>
       </c>
       <c r="T18">
-        <v>0.9999994420797731</v>
+        <v>0.9999647960273973</v>
       </c>
       <c r="U18">
-        <v>0.9999985008070963</v>
+        <v>0.9999055218835617</v>
       </c>
       <c r="V18">
-        <v>1.000001484051552</v>
+        <v>1.00009338350685</v>
       </c>
       <c r="W18">
-        <v>0.9999986753069972</v>
+        <v>0.9999164842465754</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000031426453913</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="D19">
-        <v>0.999952857912359</v>
+        <v>1.001100786315789</v>
       </c>
       <c r="E19">
-        <v>1.000011783923545</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="F19">
-        <v>1.000031426453913</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="G19">
-        <v>0.9999898667408192</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="H19">
-        <v>1.000017498603616</v>
+        <v>1.001182667368421</v>
       </c>
       <c r="I19">
-        <v>1.000031426453913</v>
+        <v>0.9979569942105263</v>
       </c>
       <c r="J19">
-        <v>0.999952857912359</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="K19">
-        <v>0.9999905748403475</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="L19">
-        <v>1.000011783923545</v>
+        <v>1.003578696842105</v>
       </c>
       <c r="M19">
-        <v>0.9999693546599551</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="N19">
-        <v>1.000031426453913</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="O19">
-        <v>1.000011783923545</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="P19">
-        <v>0.9999823209179521</v>
+        <v>1.002063969473684</v>
       </c>
       <c r="Q19">
-        <v>1.000000825332182</v>
+        <v>0.9999033405263158</v>
       </c>
       <c r="R19">
-        <v>0.999998689429939</v>
+        <v>1.000152885789473</v>
       </c>
       <c r="S19">
-        <v>0.9999848361922412</v>
+        <v>1.001770202105263</v>
       </c>
       <c r="T19">
-        <v>0.999998689429939</v>
+        <v>1.000152885789474</v>
       </c>
       <c r="U19">
-        <v>0.999996483757659</v>
+        <v>1.000410331184211</v>
       </c>
       <c r="V19">
-        <v>1.00000347229691</v>
+        <v>0.999594408631579</v>
       </c>
       <c r="W19">
-        <v>0.9999968933822625</v>
+        <v>1.000362726973684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="D20">
+        <v>0.9997777268421051</v>
+      </c>
+      <c r="E20">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="F20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="G20">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="H20">
+        <v>0.9997611915789473</v>
+      </c>
+      <c r="I20">
+        <v>1.000412534210526</v>
+      </c>
+      <c r="J20">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="K20">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="L20">
+        <v>0.999277387894737</v>
+      </c>
+      <c r="M20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="N20">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="O20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="P20">
+        <v>0.9995832292105262</v>
+      </c>
+      <c r="Q20">
+        <v>1.000019512894737</v>
+      </c>
+      <c r="R20">
+        <v>0.9999691256140352</v>
+      </c>
+      <c r="S20">
+        <v>0.9996425499999999</v>
+      </c>
+      <c r="T20">
+        <v>0.9999691256140352</v>
+      </c>
+      <c r="U20">
+        <v>0.9999171421052632</v>
+      </c>
+      <c r="V20">
+        <v>1.000081897368421</v>
+      </c>
+      <c r="W20">
+        <v>0.9999267564473683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="D21">
+        <v>1.002138463749927</v>
+      </c>
+      <c r="E21">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="F21">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="G21">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="H21">
+        <v>1.002297521799991</v>
+      </c>
+      <c r="I21">
+        <v>0.9960311143477768</v>
+      </c>
+      <c r="J21">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="K21">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="L21">
+        <v>1.006952199535176</v>
+      </c>
+      <c r="M21">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="N21">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="O21">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="P21">
+        <v>1.004009616378386</v>
+      </c>
+      <c r="Q21">
+        <v>0.9998122242064578</v>
+      </c>
+      <c r="R21">
+        <v>1.000297011520218</v>
+      </c>
+      <c r="S21">
+        <v>1.003438918185588</v>
+      </c>
+      <c r="T21">
+        <v>1.000297011520218</v>
+      </c>
+      <c r="U21">
+        <v>1.000797139090161</v>
+      </c>
+      <c r="V21">
+        <v>0.9992120716329055</v>
+      </c>
+      <c r="W21">
+        <v>1.000704657575806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="D22">
+        <v>1.000569981731863</v>
+      </c>
+      <c r="E22">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="F22">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="G22">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="H22">
+        <v>1.000612369423445</v>
+      </c>
+      <c r="I22">
+        <v>0.9989421471445173</v>
+      </c>
+      <c r="J22">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="K22">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="L22">
+        <v>1.001853009877402</v>
+      </c>
+      <c r="M22">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="N22">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="O22">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="P22">
+        <v>1.001068705969451</v>
+      </c>
+      <c r="Q22">
+        <v>0.999949949019413</v>
+      </c>
+      <c r="R22">
+        <v>1.000079162850809</v>
+      </c>
+      <c r="S22">
+        <v>1.000916593787449</v>
+      </c>
+      <c r="T22">
+        <v>1.000079162850809</v>
+      </c>
+      <c r="U22">
+        <v>1.000212464493968</v>
+      </c>
+      <c r="V22">
+        <v>0.9997899869178797</v>
+      </c>
+      <c r="W22">
+        <v>1.000187815668129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="D23">
+        <v>0.9999775195144412</v>
+      </c>
+      <c r="E23">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="F23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="G23">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="H23">
+        <v>0.9999758503963181</v>
+      </c>
+      <c r="I23">
+        <v>1.000041724880303</v>
+      </c>
+      <c r="J23">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="K23">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="L23">
+        <v>0.9999269313745373</v>
+      </c>
+      <c r="M23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="N23">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="O23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="P23">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="Q23">
+        <v>1.000001973848512</v>
+      </c>
+      <c r="R23">
+        <v>0.999996876078948</v>
+      </c>
+      <c r="S23">
+        <v>0.9999638533125929</v>
+      </c>
+      <c r="T23">
+        <v>0.999996876078948</v>
+      </c>
+      <c r="U23">
+        <v>0.9999916196582905</v>
+      </c>
+      <c r="V23">
+        <v>1.000008279465709</v>
+      </c>
+      <c r="W23">
+        <v>0.9999925939628937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9999695108552538</v>
+      </c>
+      <c r="D24">
+        <v>0.9999939036952519</v>
+      </c>
+      <c r="E24">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="F24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="G24">
+        <v>0.9999695108552538</v>
+      </c>
+      <c r="H24">
+        <v>0.9999934502044738</v>
+      </c>
+      <c r="I24">
+        <v>1.00001131671161</v>
+      </c>
+      <c r="J24">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="K24">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="L24">
+        <v>0.9999801782131964</v>
+      </c>
+      <c r="M24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="N24">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="O24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="P24">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="Q24">
+        <v>1.000000538247724</v>
+      </c>
+      <c r="R24">
+        <v>0.999999153364432</v>
+      </c>
+      <c r="S24">
+        <v>0.9999901957835672</v>
+      </c>
+      <c r="T24">
+        <v>0.999999153364432</v>
+      </c>
+      <c r="U24">
+        <v>0.9999977275744425</v>
+      </c>
+      <c r="V24">
+        <v>1.000002246648968</v>
+      </c>
+      <c r="W24">
+        <v>0.9999979919011002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9916408172691078</v>
+      </c>
+      <c r="D25">
+        <v>0.9983281631501749</v>
+      </c>
+      <c r="E25">
+        <v>1.005572790015801</v>
+      </c>
+      <c r="F25">
+        <v>1.002089797253161</v>
+      </c>
+      <c r="G25">
+        <v>0.9916408172691078</v>
+      </c>
+      <c r="H25">
+        <v>0.9982038132842622</v>
+      </c>
+      <c r="I25">
+        <v>1.003102841354823</v>
+      </c>
+      <c r="J25">
+        <v>1.005572790015801</v>
+      </c>
+      <c r="K25">
+        <v>1.005572790015801</v>
+      </c>
+      <c r="L25">
+        <v>0.9945648111066009</v>
+      </c>
+      <c r="M25">
+        <v>1.002089797253161</v>
+      </c>
+      <c r="N25">
+        <v>1.005572790015801</v>
+      </c>
+      <c r="O25">
+        <v>1.002089797253161</v>
+      </c>
+      <c r="P25">
+        <v>0.9968653072611346</v>
+      </c>
+      <c r="Q25">
+        <v>1.000146805268712</v>
+      </c>
+      <c r="R25">
+        <v>0.99976780151269</v>
+      </c>
+      <c r="S25">
+        <v>0.9973114759355105</v>
+      </c>
+      <c r="T25">
+        <v>0.99976780151269</v>
+      </c>
+      <c r="U25">
+        <v>0.9993768044555831</v>
+      </c>
+      <c r="V25">
+        <v>1.000616001567626</v>
+      </c>
+      <c r="W25">
+        <v>0.9994491038358866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9977554399469895</v>
+      </c>
+      <c r="D26">
+        <v>0.9995510868658474</v>
+      </c>
+      <c r="E26">
+        <v>1.001496364492529</v>
+      </c>
+      <c r="F26">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="G26">
+        <v>0.9977554399469895</v>
+      </c>
+      <c r="H26">
+        <v>0.999517694690065</v>
+      </c>
+      <c r="I26">
+        <v>1.000833158598477</v>
+      </c>
+      <c r="J26">
+        <v>1.001496364492529</v>
+      </c>
+      <c r="K26">
+        <v>1.001496364492529</v>
+      </c>
+      <c r="L26">
+        <v>0.9985405765969708</v>
+      </c>
+      <c r="M26">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="N26">
+        <v>1.001496364492529</v>
+      </c>
+      <c r="O26">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="P26">
+        <v>0.9991582934658279</v>
+      </c>
+      <c r="Q26">
+        <v>1.000039420837366</v>
+      </c>
+      <c r="R26">
+        <v>0.999937650474728</v>
+      </c>
+      <c r="S26">
+        <v>0.9992780938739069</v>
+      </c>
+      <c r="T26">
+        <v>0.999937650474728</v>
+      </c>
+      <c r="U26">
+        <v>0.9998326615285623</v>
+      </c>
+      <c r="V26">
+        <v>1.000165402121356</v>
+      </c>
+      <c r="W26">
+        <v>0.9998520768950263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.999760285765084</v>
+      </c>
+      <c r="D27">
+        <v>0.9999520592742006</v>
+      </c>
+      <c r="E27">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="F27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="G27">
+        <v>0.999760285765084</v>
+      </c>
+      <c r="H27">
+        <v>0.9999484877810199</v>
+      </c>
+      <c r="I27">
+        <v>1.000088964444148</v>
+      </c>
+      <c r="J27">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="K27">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="L27">
+        <v>0.9998441428745041</v>
+      </c>
+      <c r="M27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="N27">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="O27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="P27">
+        <v>0.9999101034471697</v>
+      </c>
+      <c r="Q27">
+        <v>1.000004204455138</v>
+      </c>
+      <c r="R27">
+        <v>0.9999933427983206</v>
+      </c>
+      <c r="S27">
+        <v>0.9999228982251198</v>
+      </c>
+      <c r="T27">
+        <v>0.9999933427983206</v>
+      </c>
+      <c r="U27">
+        <v>0.9999821290439954</v>
+      </c>
+      <c r="V27">
+        <v>1.000017667535321</v>
+      </c>
+      <c r="W27">
+        <v>0.9999842004872612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000241835665007</v>
+      </c>
+      <c r="D28">
+        <v>1.000048372907389</v>
+      </c>
+      <c r="E28">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="F28">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="G28">
+        <v>1.000241835665007</v>
+      </c>
+      <c r="H28">
+        <v>1.000051955169724</v>
+      </c>
+      <c r="I28">
+        <v>0.9999102243524455</v>
+      </c>
+      <c r="J28">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="K28">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="L28">
+        <v>1.000157261095115</v>
+      </c>
+      <c r="M28">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="N28">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="O28">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="P28">
+        <v>1.00009068813168</v>
+      </c>
+      <c r="Q28">
+        <v>0.9999957478840386</v>
+      </c>
+      <c r="R28">
+        <v>1.000006718541359</v>
+      </c>
+      <c r="S28">
+        <v>1.000077777144361</v>
+      </c>
+      <c r="T28">
+        <v>1.000006718541359</v>
+      </c>
+      <c r="U28">
+        <v>1.00001802769845</v>
+      </c>
+      <c r="V28">
+        <v>0.9999821780309037</v>
+      </c>
+      <c r="W28">
+        <v>1.000015938718388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.001051726665297</v>
+      </c>
+      <c r="D29">
+        <v>1.000210355732125</v>
+      </c>
+      <c r="E29">
+        <v>0.9992988581761483</v>
+      </c>
+      <c r="F29">
+        <v>0.9997370731149802</v>
+      </c>
+      <c r="G29">
+        <v>1.001051726665297</v>
+      </c>
+      <c r="H29">
+        <v>1.000225976665174</v>
+      </c>
+      <c r="I29">
+        <v>0.9996095940679871</v>
+      </c>
+      <c r="J29">
+        <v>0.9992988581761483</v>
+      </c>
+      <c r="K29">
+        <v>0.9992988581761483</v>
+      </c>
+      <c r="L29">
+        <v>1.000683852763844</v>
+      </c>
+      <c r="M29">
+        <v>0.9997370731149802</v>
+      </c>
+      <c r="N29">
+        <v>0.9992988581761483</v>
+      </c>
+      <c r="O29">
+        <v>0.9997370731149802</v>
+      </c>
+      <c r="P29">
+        <v>1.000394399890139</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999815248900772</v>
+      </c>
+      <c r="R29">
+        <v>1.000029219318809</v>
+      </c>
+      <c r="S29">
+        <v>1.000338258815151</v>
+      </c>
+      <c r="T29">
+        <v>1.000029219318809</v>
+      </c>
+      <c r="U29">
+        <v>1.0000784086554</v>
+      </c>
+      <c r="V29">
+        <v>0.9999224985595496</v>
+      </c>
+      <c r="W29">
+        <v>1.000069313787567</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.999629002426507</v>
+        <v>0.9993431839866932</v>
       </c>
       <c r="D4">
-        <v>0.9999258026177467</v>
+        <v>0.9998686383570891</v>
       </c>
       <c r="E4">
-        <v>1.000247329535183</v>
+        <v>1.000437876311164</v>
       </c>
       <c r="F4">
-        <v>1.000092748055137</v>
+        <v>1.000164204452509</v>
       </c>
       <c r="G4">
-        <v>0.999629002426507</v>
+        <v>0.9993431839866932</v>
       </c>
       <c r="H4">
-        <v>0.999920282740687</v>
+        <v>0.9998588671993308</v>
       </c>
       <c r="I4">
-        <v>1.00013771527853</v>
+        <v>1.000243805550369</v>
       </c>
       <c r="J4">
-        <v>1.000247329535183</v>
+        <v>1.000437876311164</v>
       </c>
       <c r="K4">
-        <v>1.000247329535183</v>
+        <v>1.000437876311164</v>
       </c>
       <c r="L4">
-        <v>0.9997587762083796</v>
+        <v>0.9995729358810425</v>
       </c>
       <c r="M4">
-        <v>1.000092748055137</v>
+        <v>1.000164204452509</v>
       </c>
       <c r="N4">
-        <v>1.000247329535183</v>
+        <v>1.000437876311164</v>
       </c>
       <c r="O4">
-        <v>1.000092748055137</v>
+        <v>1.000164204452509</v>
       </c>
       <c r="P4">
-        <v>0.999860875240822</v>
+        <v>0.999753694219601</v>
       </c>
       <c r="Q4">
-        <v>1.000006515397912</v>
+        <v>1.00001153582592</v>
       </c>
       <c r="R4">
-        <v>0.9999896933389424</v>
+        <v>0.9999817549167888</v>
       </c>
       <c r="S4">
-        <v>0.999880677740777</v>
+        <v>0.9997887518795109</v>
       </c>
       <c r="T4">
-        <v>0.9999896933389424</v>
+        <v>0.9999817549167886</v>
       </c>
       <c r="U4">
-        <v>0.9999723406893786</v>
+        <v>0.9999510329874242</v>
       </c>
       <c r="V4">
-        <v>1.000027338458539</v>
+        <v>1.000048401652172</v>
       </c>
       <c r="W4">
-        <v>0.9999755506146635</v>
+        <v>0.9999567145238382</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9993103309798268</v>
+        <v>0.9987164438054673</v>
       </c>
       <c r="D5">
-        <v>0.9998620677593647</v>
+        <v>0.9997432905277821</v>
       </c>
       <c r="E5">
-        <v>1.000459778364554</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="F5">
-        <v>1.000172416693082</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="G5">
-        <v>0.9993103309798268</v>
+        <v>0.9987164438054673</v>
       </c>
       <c r="H5">
-        <v>0.999851807946684</v>
+        <v>0.9997241941245965</v>
       </c>
       <c r="I5">
-        <v>1.000256001001442</v>
+        <v>1.000476443938535</v>
       </c>
       <c r="J5">
-        <v>1.000459778364554</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="K5">
-        <v>1.000459778364554</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="L5">
-        <v>0.9995515751008648</v>
+        <v>0.9991654354699542</v>
       </c>
       <c r="M5">
-        <v>1.000172416693082</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="N5">
-        <v>1.000459778364554</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="O5">
-        <v>1.000172416693082</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="P5">
-        <v>0.9997413738364544</v>
+        <v>0.9995186621660779</v>
       </c>
       <c r="Q5">
-        <v>1.000012112319883</v>
+        <v>1.000022537325643</v>
       </c>
       <c r="R5">
-        <v>0.9999808420124876</v>
+        <v>0.9999643428439496</v>
       </c>
       <c r="S5">
-        <v>0.9997781852065311</v>
+        <v>0.9995871728189174</v>
       </c>
       <c r="T5">
-        <v>0.9999808420124876</v>
+        <v>0.9999643428439496</v>
       </c>
       <c r="U5">
-        <v>0.9999485834960367</v>
+        <v>0.9999043056641114</v>
       </c>
       <c r="V5">
-        <v>1.00005082246974</v>
+        <v>1.000094585371228</v>
       </c>
       <c r="W5">
-        <v>0.9999545493173625</v>
+        <v>0.9999154091399257</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9977062349834561</v>
+        <v>0.999629002426507</v>
       </c>
       <c r="D6">
-        <v>0.9995412479143915</v>
+        <v>0.9999258026177467</v>
       </c>
       <c r="E6">
-        <v>1.001529176207897</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="F6">
-        <v>1.000573429002178</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="G6">
-        <v>0.9977062349834561</v>
+        <v>0.999629002426507</v>
       </c>
       <c r="H6">
-        <v>0.9995071269892896</v>
+        <v>0.999920282740687</v>
       </c>
       <c r="I6">
-        <v>1.000851441977582</v>
+        <v>1.00013771527853</v>
       </c>
       <c r="J6">
-        <v>1.001529176207897</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="K6">
-        <v>1.001529176207897</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="L6">
-        <v>0.9985085827699128</v>
+        <v>0.9997587762083796</v>
       </c>
       <c r="M6">
-        <v>1.000573429002178</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="N6">
-        <v>1.001529176207897</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="O6">
-        <v>1.000573429002178</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="P6">
-        <v>0.9991398319928169</v>
+        <v>0.999860875240822</v>
       </c>
       <c r="Q6">
-        <v>1.000040277995734</v>
+        <v>1.000006515397912</v>
       </c>
       <c r="R6">
-        <v>0.9999362800645102</v>
+        <v>0.9999896933389424</v>
       </c>
       <c r="S6">
-        <v>0.9992622636583078</v>
+        <v>0.999880677740777</v>
       </c>
       <c r="T6">
-        <v>0.9999362800645102</v>
+        <v>0.9999896933389424</v>
       </c>
       <c r="U6">
-        <v>0.9998289917957051</v>
+        <v>0.9999723406893786</v>
       </c>
       <c r="V6">
-        <v>1.000169028678144</v>
+        <v>1.000027338458539</v>
       </c>
       <c r="W6">
-        <v>0.9998488336058605</v>
+        <v>0.9999755506146635</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999239922974491</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="D7">
-        <v>0.9999848006543612</v>
+        <v>0.9998620677593647</v>
       </c>
       <c r="E7">
-        <v>1.000050671315418</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="F7">
-        <v>1.000019002707936</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="G7">
-        <v>0.9999239922974491</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="H7">
-        <v>0.9999836691789404</v>
+        <v>0.999851807946684</v>
       </c>
       <c r="I7">
-        <v>1.000028213653841</v>
+        <v>1.000256001001442</v>
       </c>
       <c r="J7">
-        <v>1.000050671315418</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="K7">
-        <v>1.000050671315418</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="L7">
-        <v>0.9999505809985033</v>
+        <v>0.9995515751008648</v>
       </c>
       <c r="M7">
-        <v>1.000019002707936</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="N7">
-        <v>1.000050671315418</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="O7">
-        <v>1.000019002707936</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="P7">
-        <v>0.9999714975026923</v>
+        <v>0.9997413738364544</v>
       </c>
       <c r="Q7">
-        <v>1.000001335943438</v>
+        <v>1.000012112319883</v>
       </c>
       <c r="R7">
-        <v>0.9999978887736009</v>
+        <v>0.9999808420124876</v>
       </c>
       <c r="S7">
-        <v>0.9999755547281084</v>
+        <v>0.9997781852065311</v>
       </c>
       <c r="T7">
-        <v>0.9999978887736009</v>
+        <v>0.9999808420124876</v>
       </c>
       <c r="U7">
-        <v>0.9999943338749357</v>
+        <v>0.9999485834960367</v>
       </c>
       <c r="V7">
-        <v>1.000005601363032</v>
+        <v>1.00005082246974</v>
       </c>
       <c r="W7">
-        <v>0.999994991689298</v>
+        <v>0.9999545493173625</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999942836438702</v>
+        <v>0.9977062349834561</v>
       </c>
       <c r="D8">
-        <v>0.9999988588801481</v>
+        <v>0.9995412479143915</v>
       </c>
       <c r="E8">
-        <v>1.000003810149395</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="F8">
-        <v>1.000001430164178</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="G8">
-        <v>0.9999942836438702</v>
+        <v>0.9977062349834561</v>
       </c>
       <c r="H8">
-        <v>0.9999987730733327</v>
+        <v>0.9995071269892896</v>
       </c>
       <c r="I8">
-        <v>1.000002122519421</v>
+        <v>1.000851441977582</v>
       </c>
       <c r="J8">
-        <v>1.000003810149395</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="K8">
-        <v>1.000003810149395</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="L8">
-        <v>0.9999962847585441</v>
+        <v>0.9985085827699128</v>
       </c>
       <c r="M8">
-        <v>1.000001430164178</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="N8">
-        <v>1.000003810149395</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="O8">
-        <v>1.000001430164178</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="P8">
-        <v>0.9999978569040242</v>
+        <v>0.9991398319928169</v>
       </c>
       <c r="Q8">
-        <v>1.000000101618755</v>
+        <v>1.000040277995734</v>
       </c>
       <c r="R8">
-        <v>0.9999998413191479</v>
+        <v>0.9999362800645102</v>
       </c>
       <c r="S8">
-        <v>0.9999981622937937</v>
+        <v>0.9992622636583078</v>
       </c>
       <c r="T8">
-        <v>0.9999998413191479</v>
+        <v>0.9999362800645102</v>
       </c>
       <c r="U8">
-        <v>0.999999574257694</v>
+        <v>0.9998289917957051</v>
       </c>
       <c r="V8">
-        <v>1.000000421436034</v>
+        <v>1.000169028678144</v>
       </c>
       <c r="W8">
-        <v>0.9999996241691335</v>
+        <v>0.9998488336058605</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9998738372178897</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="D9">
-        <v>0.9999747691747497</v>
+        <v>0.9999848006543612</v>
       </c>
       <c r="E9">
-        <v>1.000084107857689</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="F9">
-        <v>1.000031540050173</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="G9">
-        <v>0.9998738372178897</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="H9">
-        <v>0.9999728921694275</v>
+        <v>0.9999836691789404</v>
       </c>
       <c r="I9">
-        <v>1.000046830123802</v>
+        <v>1.000028213653841</v>
       </c>
       <c r="J9">
-        <v>1.000084107857689</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="K9">
-        <v>1.000084107857689</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="L9">
-        <v>0.9999179715240555</v>
+        <v>0.9999505809985033</v>
       </c>
       <c r="M9">
-        <v>1.000031540050173</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="N9">
-        <v>1.000084107857689</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="O9">
-        <v>1.000031540050173</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="P9">
-        <v>0.9999526886340313</v>
+        <v>0.9999714975026923</v>
       </c>
       <c r="Q9">
-        <v>1.0000022161098</v>
+        <v>1.000001335943438</v>
       </c>
       <c r="R9">
-        <v>0.9999964950419172</v>
+        <v>0.9999978887736009</v>
       </c>
       <c r="S9">
-        <v>0.99995942314583</v>
+        <v>0.9999755547281084</v>
       </c>
       <c r="T9">
-        <v>0.9999964950419172</v>
+        <v>0.9999978887736009</v>
       </c>
       <c r="U9">
-        <v>0.9999905943237948</v>
+        <v>0.9999943338749357</v>
       </c>
       <c r="V9">
-        <v>1.000009297030574</v>
+        <v>1.000005601363032</v>
       </c>
       <c r="W9">
-        <v>0.9999916860209949</v>
+        <v>0.999994991689298</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9976719766164388</v>
+        <v>0.9999942836438702</v>
       </c>
       <c r="D10">
-        <v>0.9995343956960238</v>
+        <v>0.9999988588801481</v>
       </c>
       <c r="E10">
-        <v>1.001552014607612</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="F10">
-        <v>1.000581993772743</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="G10">
-        <v>0.9976719766164388</v>
+        <v>0.9999942836438702</v>
       </c>
       <c r="H10">
-        <v>0.999499765373734</v>
+        <v>0.9999987730733327</v>
       </c>
       <c r="I10">
-        <v>1.00086415776973</v>
+        <v>1.000002122519421</v>
       </c>
       <c r="J10">
-        <v>1.001552014607612</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="K10">
-        <v>1.001552014607612</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="L10">
-        <v>0.9984863077232052</v>
+        <v>0.9999962847585441</v>
       </c>
       <c r="M10">
-        <v>1.000581993772743</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="N10">
-        <v>1.001552014607612</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="O10">
-        <v>1.000581993772743</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="P10">
-        <v>0.999126985194591</v>
+        <v>0.9999978569040242</v>
       </c>
       <c r="Q10">
-        <v>1.000040879573239</v>
+        <v>1.000000101618755</v>
       </c>
       <c r="R10">
-        <v>0.9999353283322646</v>
+        <v>0.9999998413191479</v>
       </c>
       <c r="S10">
-        <v>0.9992512452543053</v>
+        <v>0.9999981622937937</v>
       </c>
       <c r="T10">
-        <v>0.9999353283322646</v>
+        <v>0.9999998413191479</v>
       </c>
       <c r="U10">
-        <v>0.9998264375926319</v>
+        <v>0.999999574257694</v>
       </c>
       <c r="V10">
-        <v>1.000171552995628</v>
+        <v>1.000000421436034</v>
       </c>
       <c r="W10">
-        <v>0.9998465756665287</v>
+        <v>0.9999996241691335</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9974985628805104</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="D11">
-        <v>0.9994997148633441</v>
+        <v>0.9999747691747497</v>
       </c>
       <c r="E11">
-        <v>1.001667622589512</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="F11">
-        <v>1.000625358292651</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="G11">
-        <v>0.9974985628805104</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="H11">
-        <v>0.9994625021932418</v>
+        <v>0.9999728921694275</v>
       </c>
       <c r="I11">
-        <v>1.000928516244648</v>
+        <v>1.000046830123802</v>
       </c>
       <c r="J11">
-        <v>1.001667622589512</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="K11">
-        <v>1.001667622589512</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="L11">
-        <v>0.998373551329466</v>
+        <v>0.9999179715240555</v>
       </c>
       <c r="M11">
-        <v>1.000625358292651</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="N11">
-        <v>1.001667622589512</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="O11">
-        <v>1.000625358292651</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="P11">
-        <v>0.9990619605865808</v>
+        <v>0.9999526886340313</v>
       </c>
       <c r="Q11">
-        <v>1.000043930242946</v>
+        <v>1.0000022161098</v>
       </c>
       <c r="R11">
-        <v>0.999930514587558</v>
+        <v>0.9999964950419172</v>
       </c>
       <c r="S11">
-        <v>0.9991954744554677</v>
+        <v>0.99995942314583</v>
       </c>
       <c r="T11">
-        <v>0.999930514587558</v>
+        <v>0.9999964950419172</v>
       </c>
       <c r="U11">
-        <v>0.999813511488979</v>
+        <v>0.9999905943237948</v>
       </c>
       <c r="V11">
-        <v>1.000184333709086</v>
+        <v>1.000009297030574</v>
       </c>
       <c r="W11">
-        <v>0.999835148335753</v>
+        <v>0.9999916860209949</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9992177278526325</v>
+        <v>0.9976719766164388</v>
       </c>
       <c r="D12">
-        <v>0.9998435461157887</v>
+        <v>0.9995343956960238</v>
       </c>
       <c r="E12">
-        <v>1.000521513515791</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="F12">
-        <v>1.00019556791579</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="G12">
-        <v>0.9992177278526325</v>
+        <v>0.9976719766164388</v>
       </c>
       <c r="H12">
-        <v>0.9998319090210523</v>
+        <v>0.999499765373734</v>
       </c>
       <c r="I12">
-        <v>1.000290374210524</v>
+        <v>1.00086415776973</v>
       </c>
       <c r="J12">
-        <v>1.000521513515791</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="K12">
-        <v>1.000521513515791</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="L12">
-        <v>0.9994913634736857</v>
+        <v>0.9984863077232052</v>
       </c>
       <c r="M12">
-        <v>1.00019556791579</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="N12">
-        <v>1.000521513515791</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="O12">
-        <v>1.00019556791579</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="P12">
-        <v>0.9997066478842112</v>
+        <v>0.999126985194591</v>
       </c>
       <c r="Q12">
-        <v>1.000013738468421</v>
+        <v>1.000040879573239</v>
       </c>
       <c r="R12">
-        <v>0.9999782697614044</v>
+        <v>0.9999353283322646</v>
       </c>
       <c r="S12">
-        <v>0.9997484015964915</v>
+        <v>0.9992512452543053</v>
       </c>
       <c r="T12">
-        <v>0.9999782697614045</v>
+        <v>0.9999353283322646</v>
       </c>
       <c r="U12">
-        <v>0.9999416795763165</v>
+        <v>0.9998264375926319</v>
       </c>
       <c r="V12">
-        <v>1.000057646364211</v>
+        <v>1.000171552995628</v>
       </c>
       <c r="W12">
-        <v>0.9999484462526318</v>
+        <v>0.9998465756665287</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000457854300378</v>
+        <v>0.9974985628805104</v>
       </c>
       <c r="D13">
-        <v>1.000091572154461</v>
+        <v>0.9994997148633441</v>
       </c>
       <c r="E13">
-        <v>0.9996947631889451</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="F13">
-        <v>0.9998855389247656</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="G13">
-        <v>1.000457854300378</v>
+        <v>0.9974985628805104</v>
       </c>
       <c r="H13">
-        <v>1.000098381896423</v>
+        <v>0.9994625021932418</v>
       </c>
       <c r="I13">
-        <v>0.9998300471661499</v>
+        <v>1.000928516244648</v>
       </c>
       <c r="J13">
-        <v>0.9996947631889451</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="K13">
-        <v>0.9996947631889451</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="L13">
-        <v>1.000297700971029</v>
+        <v>0.998373551329466</v>
       </c>
       <c r="M13">
-        <v>0.9998855389247656</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="N13">
-        <v>0.9996947631889451</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="O13">
-        <v>0.9998855389247656</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="P13">
-        <v>1.000171696612572</v>
+        <v>0.9990619605865808</v>
       </c>
       <c r="Q13">
-        <v>0.9999919604105941</v>
+        <v>1.000043930242946</v>
       </c>
       <c r="R13">
-        <v>1.000012718804696</v>
+        <v>0.999930514587558</v>
       </c>
       <c r="S13">
-        <v>1.000147258373856</v>
+        <v>0.9991954744554677</v>
       </c>
       <c r="T13">
-        <v>1.000012718804696</v>
+        <v>0.999930514587558</v>
       </c>
       <c r="U13">
-        <v>1.000034134577628</v>
+        <v>0.999813511488979</v>
       </c>
       <c r="V13">
-        <v>0.9999662602998912</v>
+        <v>1.000184333709086</v>
       </c>
       <c r="W13">
-        <v>1.000030174690865</v>
+        <v>0.999835148335753</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9959779000000001</v>
+        <v>0.9992177278526325</v>
       </c>
       <c r="D14">
-        <v>0.9991955799999999</v>
+        <v>0.9998435461157887</v>
       </c>
       <c r="E14">
-        <v>1.0026814</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="F14">
-        <v>1.0010055</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="G14">
-        <v>0.9959779000000001</v>
+        <v>0.9992177278526325</v>
       </c>
       <c r="H14">
-        <v>0.99913575</v>
+        <v>0.9998319090210523</v>
       </c>
       <c r="I14">
-        <v>1.001492999999998</v>
+        <v>1.000290374210524</v>
       </c>
       <c r="J14">
-        <v>1.0026814</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="K14">
-        <v>1.0026814</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="L14">
-        <v>0.9973848100000001</v>
+        <v>0.9994913634736857</v>
       </c>
       <c r="M14">
-        <v>1.0010055</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="N14">
-        <v>1.0026814</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="O14">
-        <v>1.0010055</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="P14">
-        <v>0.9984917</v>
+        <v>0.9997066478842112</v>
       </c>
       <c r="Q14">
-        <v>1.000070625</v>
+        <v>1.000013738468421</v>
       </c>
       <c r="R14">
-        <v>0.9998882666666665</v>
+        <v>0.9999782697614044</v>
       </c>
       <c r="S14">
-        <v>0.9987063833333334</v>
+        <v>0.9997484015964915</v>
       </c>
       <c r="T14">
-        <v>0.9998882666666665</v>
+        <v>0.9999782697614045</v>
       </c>
       <c r="U14">
-        <v>0.9997001374999999</v>
+        <v>0.9999416795763165</v>
       </c>
       <c r="V14">
-        <v>1.00029639</v>
+        <v>1.000057646364211</v>
       </c>
       <c r="W14">
-        <v>0.9997349299999997</v>
+        <v>0.9999484462526318</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0160884</v>
+        <v>1.000457854300378</v>
       </c>
       <c r="D15">
-        <v>1.0032177</v>
+        <v>1.000091572154461</v>
       </c>
       <c r="E15">
-        <v>0.98927441</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="F15">
-        <v>0.9959779000000001</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="G15">
-        <v>1.0160884</v>
+        <v>1.000457854300378</v>
       </c>
       <c r="H15">
-        <v>1.003457</v>
+        <v>1.000098381896423</v>
       </c>
       <c r="I15">
-        <v>0.9940281299999999</v>
+        <v>0.9998300471661499</v>
       </c>
       <c r="J15">
-        <v>0.98927441</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="K15">
-        <v>0.98927441</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="L15">
-        <v>1.0104608</v>
+        <v>1.000297700971029</v>
       </c>
       <c r="M15">
-        <v>0.9959779000000001</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="N15">
-        <v>0.98927441</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="O15">
-        <v>0.9959779000000001</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="P15">
-        <v>1.00603315</v>
+        <v>1.000171696612572</v>
       </c>
       <c r="Q15">
-        <v>0.9997174500000001</v>
+        <v>0.9999919604105941</v>
       </c>
       <c r="R15">
-        <v>1.000446903333333</v>
+        <v>1.000012718804696</v>
       </c>
       <c r="S15">
-        <v>1.005174433333333</v>
+        <v>1.000147258373856</v>
       </c>
       <c r="T15">
-        <v>1.000446903333333</v>
+        <v>1.000012718804696</v>
       </c>
       <c r="U15">
-        <v>1.0011994275</v>
+        <v>1.000034134577628</v>
       </c>
       <c r="V15">
-        <v>0.9988144240000001</v>
+        <v>0.9999662602998912</v>
       </c>
       <c r="W15">
-        <v>1.00106028</v>
+        <v>1.000030174690865</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1597,7 +1603,7 @@
         <v>0.9959779000000001</v>
       </c>
       <c r="D16">
-        <v>0.99919558</v>
+        <v>0.9991955799999999</v>
       </c>
       <c r="E16">
         <v>1.0026814</v>
@@ -1612,7 +1618,7 @@
         <v>0.99913575</v>
       </c>
       <c r="I16">
-        <v>1.001493</v>
+        <v>1.001492999999998</v>
       </c>
       <c r="J16">
         <v>1.0026814</v>
@@ -1654,7 +1660,7 @@
         <v>1.00029639</v>
       </c>
       <c r="W16">
-        <v>0.99973493</v>
+        <v>0.9997349299999997</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0110608</v>
+        <v>1.0160884</v>
       </c>
       <c r="D17">
-        <v>1.0022122</v>
+        <v>1.0032177</v>
       </c>
       <c r="E17">
-        <v>0.99262616</v>
+        <v>0.98927441</v>
       </c>
       <c r="F17">
-        <v>0.99723481</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G17">
-        <v>1.0110608</v>
+        <v>1.0160884</v>
       </c>
       <c r="H17">
-        <v>1.0023767</v>
+        <v>1.003457</v>
       </c>
       <c r="I17">
-        <v>0.99589434</v>
+        <v>0.9940281299999999</v>
       </c>
       <c r="J17">
-        <v>0.99262616</v>
+        <v>0.98927441</v>
       </c>
       <c r="K17">
-        <v>0.99262616</v>
+        <v>0.98927441</v>
       </c>
       <c r="L17">
-        <v>1.0071918</v>
+        <v>1.0104608</v>
       </c>
       <c r="M17">
-        <v>0.99723481</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="N17">
-        <v>0.99262616</v>
+        <v>0.98927441</v>
       </c>
       <c r="O17">
-        <v>0.99723481</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="P17">
-        <v>1.004147805</v>
+        <v>1.00603315</v>
       </c>
       <c r="Q17">
-        <v>0.9998057549999999</v>
+        <v>0.9997174500000001</v>
       </c>
       <c r="R17">
-        <v>1.000307256666667</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="S17">
-        <v>1.003557436666667</v>
+        <v>1.005174433333333</v>
       </c>
       <c r="T17">
-        <v>1.000307256666667</v>
+        <v>1.000446903333333</v>
       </c>
       <c r="U17">
-        <v>1.0008246175</v>
+        <v>1.0011994275</v>
       </c>
       <c r="V17">
-        <v>0.9991849260000001</v>
+        <v>0.9988144240000001</v>
       </c>
       <c r="W17">
-        <v>1.0007289525</v>
+        <v>1.00106028</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9987327567123285</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D18">
-        <v>0.9997465531506848</v>
+        <v>0.99919558</v>
       </c>
       <c r="E18">
-        <v>1.00084483</v>
+        <v>1.0026814</v>
       </c>
       <c r="F18">
-        <v>1.000316801369863</v>
+        <v>1.0010055</v>
       </c>
       <c r="G18">
-        <v>0.9987327567123285</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H18">
-        <v>0.9997276994520549</v>
+        <v>0.99913575</v>
       </c>
       <c r="I18">
-        <v>1.00047039</v>
+        <v>1.001493</v>
       </c>
       <c r="J18">
-        <v>1.00084483</v>
+        <v>1.0026814</v>
       </c>
       <c r="K18">
-        <v>1.00084483</v>
+        <v>1.0026814</v>
       </c>
       <c r="L18">
-        <v>0.9991760419178082</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="M18">
-        <v>1.000316801369863</v>
+        <v>1.0010055</v>
       </c>
       <c r="N18">
-        <v>1.00084483</v>
+        <v>1.0026814</v>
       </c>
       <c r="O18">
-        <v>1.000316801369863</v>
+        <v>1.0010055</v>
       </c>
       <c r="P18">
-        <v>0.9995247790410959</v>
+        <v>0.9984917</v>
       </c>
       <c r="Q18">
-        <v>1.000022250410959</v>
+        <v>1.000070625</v>
       </c>
       <c r="R18">
-        <v>0.9999647960273973</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="S18">
-        <v>0.9995924191780823</v>
+        <v>0.9987063833333334</v>
       </c>
       <c r="T18">
-        <v>0.9999647960273973</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="U18">
-        <v>0.9999055218835617</v>
+        <v>0.9997001374999999</v>
       </c>
       <c r="V18">
-        <v>1.00009338350685</v>
+        <v>1.00029639</v>
       </c>
       <c r="W18">
-        <v>0.9999164842465754</v>
+        <v>0.99973493</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.005503925263158</v>
+        <v>1.0110608</v>
       </c>
       <c r="D19">
-        <v>1.001100786315789</v>
+        <v>1.0022122</v>
       </c>
       <c r="E19">
-        <v>0.9963307184210525</v>
+        <v>0.99262616</v>
       </c>
       <c r="F19">
-        <v>0.9986240136842104</v>
+        <v>0.99723481</v>
       </c>
       <c r="G19">
-        <v>1.005503925263158</v>
+        <v>1.0110608</v>
       </c>
       <c r="H19">
-        <v>1.001182667368421</v>
+        <v>1.0023767</v>
       </c>
       <c r="I19">
-        <v>0.9979569942105263</v>
+        <v>0.99589434</v>
       </c>
       <c r="J19">
-        <v>0.9963307184210525</v>
+        <v>0.99262616</v>
       </c>
       <c r="K19">
-        <v>0.9963307184210525</v>
+        <v>0.99262616</v>
       </c>
       <c r="L19">
-        <v>1.003578696842105</v>
+        <v>1.0071918</v>
       </c>
       <c r="M19">
-        <v>0.9986240136842104</v>
+        <v>0.99723481</v>
       </c>
       <c r="N19">
-        <v>0.9963307184210525</v>
+        <v>0.99262616</v>
       </c>
       <c r="O19">
-        <v>0.9986240136842104</v>
+        <v>0.99723481</v>
       </c>
       <c r="P19">
-        <v>1.002063969473684</v>
+        <v>1.004147805</v>
       </c>
       <c r="Q19">
-        <v>0.9999033405263158</v>
+        <v>0.9998057549999999</v>
       </c>
       <c r="R19">
-        <v>1.000152885789473</v>
+        <v>1.000307256666667</v>
       </c>
       <c r="S19">
-        <v>1.001770202105263</v>
+        <v>1.003557436666667</v>
       </c>
       <c r="T19">
-        <v>1.000152885789474</v>
+        <v>1.000307256666667</v>
       </c>
       <c r="U19">
-        <v>1.000410331184211</v>
+        <v>1.0008246175</v>
       </c>
       <c r="V19">
-        <v>0.999594408631579</v>
+        <v>0.9991849260000001</v>
       </c>
       <c r="W19">
-        <v>1.000362726973684</v>
+        <v>1.0007289525</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9988886242105264</v>
+        <v>0.9987327567123285</v>
       </c>
       <c r="D20">
-        <v>0.9997777268421051</v>
+        <v>0.9997465531506848</v>
       </c>
       <c r="E20">
-        <v>1.000740918421053</v>
+        <v>1.00084483</v>
       </c>
       <c r="F20">
-        <v>1.000277834210526</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="G20">
-        <v>0.9988886242105264</v>
+        <v>0.9987327567123285</v>
       </c>
       <c r="H20">
-        <v>0.9997611915789473</v>
+        <v>0.9997276994520549</v>
       </c>
       <c r="I20">
-        <v>1.000412534210526</v>
+        <v>1.00047039</v>
       </c>
       <c r="J20">
-        <v>1.000740918421053</v>
+        <v>1.00084483</v>
       </c>
       <c r="K20">
-        <v>1.000740918421053</v>
+        <v>1.00084483</v>
       </c>
       <c r="L20">
-        <v>0.999277387894737</v>
+        <v>0.9991760419178082</v>
       </c>
       <c r="M20">
-        <v>1.000277834210526</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="N20">
-        <v>1.000740918421053</v>
+        <v>1.00084483</v>
       </c>
       <c r="O20">
-        <v>1.000277834210526</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="P20">
-        <v>0.9995832292105262</v>
+        <v>0.9995247790410959</v>
       </c>
       <c r="Q20">
-        <v>1.000019512894737</v>
+        <v>1.000022250410959</v>
       </c>
       <c r="R20">
-        <v>0.9999691256140352</v>
+        <v>0.9999647960273973</v>
       </c>
       <c r="S20">
-        <v>0.9996425499999999</v>
+        <v>0.9995924191780823</v>
       </c>
       <c r="T20">
-        <v>0.9999691256140352</v>
+        <v>0.9999647960273973</v>
       </c>
       <c r="U20">
-        <v>0.9999171421052632</v>
+        <v>0.9999055218835617</v>
       </c>
       <c r="V20">
-        <v>1.000081897368421</v>
+        <v>1.00009338350685</v>
       </c>
       <c r="W20">
-        <v>0.9999267564473683</v>
+        <v>0.9999164842465754</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.010692306143848</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="D21">
-        <v>1.002138463749927</v>
+        <v>1.001100786315789</v>
       </c>
       <c r="E21">
-        <v>0.9928718018038819</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="F21">
-        <v>0.9973269266129244</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="G21">
-        <v>1.010692306143848</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="H21">
-        <v>1.002297521799991</v>
+        <v>1.001182667368421</v>
       </c>
       <c r="I21">
-        <v>0.9960311143477768</v>
+        <v>0.9979569942105263</v>
       </c>
       <c r="J21">
-        <v>0.9928718018038819</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="K21">
-        <v>0.9928718018038819</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="L21">
-        <v>1.006952199535176</v>
+        <v>1.003578696842105</v>
       </c>
       <c r="M21">
-        <v>0.9973269266129244</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="N21">
-        <v>0.9928718018038819</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="O21">
-        <v>0.9973269266129244</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="P21">
-        <v>1.004009616378386</v>
+        <v>1.002063969473684</v>
       </c>
       <c r="Q21">
-        <v>0.9998122242064578</v>
+        <v>0.9999033405263158</v>
       </c>
       <c r="R21">
-        <v>1.000297011520218</v>
+        <v>1.000152885789473</v>
       </c>
       <c r="S21">
-        <v>1.003438918185588</v>
+        <v>1.001770202105263</v>
       </c>
       <c r="T21">
-        <v>1.000297011520218</v>
+        <v>1.000152885789474</v>
       </c>
       <c r="U21">
-        <v>1.000797139090161</v>
+        <v>1.000410331184211</v>
       </c>
       <c r="V21">
-        <v>0.9992120716329055</v>
+        <v>0.999594408631579</v>
       </c>
       <c r="W21">
-        <v>1.000704657575806</v>
+        <v>1.000362726973684</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.00284988332352</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="D22">
-        <v>1.000569981731863</v>
+        <v>0.9997777268421051</v>
       </c>
       <c r="E22">
-        <v>0.9981000766135258</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="F22">
-        <v>0.9992875286153806</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="G22">
-        <v>1.00284988332352</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="H22">
-        <v>1.000612369423445</v>
+        <v>0.9997611915789473</v>
       </c>
       <c r="I22">
-        <v>0.9989421471445173</v>
+        <v>1.000412534210526</v>
       </c>
       <c r="J22">
-        <v>0.9981000766135258</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="K22">
-        <v>0.9981000766135258</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="L22">
-        <v>1.001853009877402</v>
+        <v>0.999277387894737</v>
       </c>
       <c r="M22">
-        <v>0.9992875286153806</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="N22">
-        <v>0.9981000766135258</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="O22">
-        <v>0.9992875286153806</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="P22">
-        <v>1.001068705969451</v>
+        <v>0.9995832292105262</v>
       </c>
       <c r="Q22">
-        <v>0.999949949019413</v>
+        <v>1.000019512894737</v>
       </c>
       <c r="R22">
-        <v>1.000079162850809</v>
+        <v>0.9999691256140352</v>
       </c>
       <c r="S22">
-        <v>1.000916593787449</v>
+        <v>0.9996425499999999</v>
       </c>
       <c r="T22">
-        <v>1.000079162850809</v>
+        <v>0.9999691256140352</v>
       </c>
       <c r="U22">
-        <v>1.000212464493968</v>
+        <v>0.9999171421052632</v>
       </c>
       <c r="V22">
-        <v>0.9997899869178797</v>
+        <v>1.000081897368421</v>
       </c>
       <c r="W22">
-        <v>1.000187815668129</v>
+        <v>0.9999267564473683</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9998876122407557</v>
+        <v>1.010692306143848</v>
       </c>
       <c r="D23">
-        <v>0.9999775195144412</v>
+        <v>1.002138463749927</v>
       </c>
       <c r="E23">
-        <v>1.000074918695383</v>
+        <v>0.9928718018038819</v>
       </c>
       <c r="F23">
-        <v>1.000028097300705</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="G23">
-        <v>0.9998876122407557</v>
+        <v>1.010692306143848</v>
       </c>
       <c r="H23">
-        <v>0.9999758503963181</v>
+        <v>1.002297521799991</v>
       </c>
       <c r="I23">
-        <v>1.000041724880303</v>
+        <v>0.9960311143477768</v>
       </c>
       <c r="J23">
-        <v>1.000074918695383</v>
+        <v>0.9928718018038819</v>
       </c>
       <c r="K23">
-        <v>1.000074918695383</v>
+        <v>0.9928718018038819</v>
       </c>
       <c r="L23">
-        <v>0.9999269313745373</v>
+        <v>1.006952199535176</v>
       </c>
       <c r="M23">
-        <v>1.000028097300705</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="N23">
-        <v>1.000074918695383</v>
+        <v>0.9928718018038819</v>
       </c>
       <c r="O23">
-        <v>1.000028097300705</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="P23">
-        <v>0.9999578547707304</v>
+        <v>1.004009616378386</v>
       </c>
       <c r="Q23">
-        <v>1.000001973848512</v>
+        <v>0.9998122242064578</v>
       </c>
       <c r="R23">
-        <v>0.999996876078948</v>
+        <v>1.000297011520218</v>
       </c>
       <c r="S23">
-        <v>0.9999638533125929</v>
+        <v>1.003438918185588</v>
       </c>
       <c r="T23">
-        <v>0.999996876078948</v>
+        <v>1.000297011520218</v>
       </c>
       <c r="U23">
-        <v>0.9999916196582905</v>
+        <v>1.000797139090161</v>
       </c>
       <c r="V23">
-        <v>1.000008279465709</v>
+        <v>0.9992120716329055</v>
       </c>
       <c r="W23">
-        <v>0.9999925939628937</v>
+        <v>1.000704657575806</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9999695108552538</v>
+        <v>1.00284988332352</v>
       </c>
       <c r="D24">
-        <v>0.9999939036952519</v>
+        <v>1.000569981731863</v>
       </c>
       <c r="E24">
-        <v>1.000020322947068</v>
+        <v>0.9981000766135258</v>
       </c>
       <c r="F24">
-        <v>1.000007626290974</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="G24">
-        <v>0.9999695108552538</v>
+        <v>1.00284988332352</v>
       </c>
       <c r="H24">
-        <v>0.9999934502044738</v>
+        <v>1.000612369423445</v>
       </c>
       <c r="I24">
-        <v>1.00001131671161</v>
+        <v>0.9989421471445173</v>
       </c>
       <c r="J24">
-        <v>1.000020322947068</v>
+        <v>0.9981000766135258</v>
       </c>
       <c r="K24">
-        <v>1.000020322947068</v>
+        <v>0.9981000766135258</v>
       </c>
       <c r="L24">
-        <v>0.9999801782131964</v>
+        <v>1.001853009877402</v>
       </c>
       <c r="M24">
-        <v>1.000007626290974</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="N24">
-        <v>1.000020322947068</v>
+        <v>0.9981000766135258</v>
       </c>
       <c r="O24">
-        <v>1.000007626290974</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="P24">
-        <v>0.9999885685731138</v>
+        <v>1.001068705969451</v>
       </c>
       <c r="Q24">
-        <v>1.000000538247724</v>
+        <v>0.999949949019413</v>
       </c>
       <c r="R24">
-        <v>0.999999153364432</v>
+        <v>1.000079162850809</v>
       </c>
       <c r="S24">
-        <v>0.9999901957835672</v>
+        <v>1.000916593787449</v>
       </c>
       <c r="T24">
-        <v>0.999999153364432</v>
+        <v>1.000079162850809</v>
       </c>
       <c r="U24">
-        <v>0.9999977275744425</v>
+        <v>1.000212464493968</v>
       </c>
       <c r="V24">
-        <v>1.000002246648968</v>
+        <v>0.9997899869178797</v>
       </c>
       <c r="W24">
-        <v>0.9999979919011002</v>
+        <v>1.000187815668129</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9916408172691078</v>
+        <v>0.9998876122407557</v>
       </c>
       <c r="D25">
-        <v>0.9983281631501749</v>
+        <v>0.9999775195144412</v>
       </c>
       <c r="E25">
-        <v>1.005572790015801</v>
+        <v>1.000074918695383</v>
       </c>
       <c r="F25">
-        <v>1.002089797253161</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="G25">
-        <v>0.9916408172691078</v>
+        <v>0.9998876122407557</v>
       </c>
       <c r="H25">
-        <v>0.9982038132842622</v>
+        <v>0.9999758503963181</v>
       </c>
       <c r="I25">
-        <v>1.003102841354823</v>
+        <v>1.000041724880303</v>
       </c>
       <c r="J25">
-        <v>1.005572790015801</v>
+        <v>1.000074918695383</v>
       </c>
       <c r="K25">
-        <v>1.005572790015801</v>
+        <v>1.000074918695383</v>
       </c>
       <c r="L25">
-        <v>0.9945648111066009</v>
+        <v>0.9999269313745373</v>
       </c>
       <c r="M25">
-        <v>1.002089797253161</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="N25">
-        <v>1.005572790015801</v>
+        <v>1.000074918695383</v>
       </c>
       <c r="O25">
-        <v>1.002089797253161</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="P25">
-        <v>0.9968653072611346</v>
+        <v>0.9999578547707304</v>
       </c>
       <c r="Q25">
-        <v>1.000146805268712</v>
+        <v>1.000001973848512</v>
       </c>
       <c r="R25">
-        <v>0.99976780151269</v>
+        <v>0.999996876078948</v>
       </c>
       <c r="S25">
-        <v>0.9973114759355105</v>
+        <v>0.9999638533125929</v>
       </c>
       <c r="T25">
-        <v>0.99976780151269</v>
+        <v>0.999996876078948</v>
       </c>
       <c r="U25">
-        <v>0.9993768044555831</v>
+        <v>0.9999916196582905</v>
       </c>
       <c r="V25">
-        <v>1.000616001567626</v>
+        <v>1.000008279465709</v>
       </c>
       <c r="W25">
-        <v>0.9994491038358866</v>
+        <v>0.9999925939628937</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9977554399469895</v>
+        <v>0.9999695108552538</v>
       </c>
       <c r="D26">
-        <v>0.9995510868658474</v>
+        <v>0.9999939036952519</v>
       </c>
       <c r="E26">
-        <v>1.001496364492529</v>
+        <v>1.000020322947068</v>
       </c>
       <c r="F26">
-        <v>1.000561146984666</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="G26">
-        <v>0.9977554399469895</v>
+        <v>0.9999695108552538</v>
       </c>
       <c r="H26">
-        <v>0.999517694690065</v>
+        <v>0.9999934502044738</v>
       </c>
       <c r="I26">
-        <v>1.000833158598477</v>
+        <v>1.00001131671161</v>
       </c>
       <c r="J26">
-        <v>1.001496364492529</v>
+        <v>1.000020322947068</v>
       </c>
       <c r="K26">
-        <v>1.001496364492529</v>
+        <v>1.000020322947068</v>
       </c>
       <c r="L26">
-        <v>0.9985405765969708</v>
+        <v>0.9999801782131964</v>
       </c>
       <c r="M26">
-        <v>1.000561146984666</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="N26">
-        <v>1.001496364492529</v>
+        <v>1.000020322947068</v>
       </c>
       <c r="O26">
-        <v>1.000561146984666</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="P26">
-        <v>0.9991582934658279</v>
+        <v>0.9999885685731138</v>
       </c>
       <c r="Q26">
-        <v>1.000039420837366</v>
+        <v>1.000000538247724</v>
       </c>
       <c r="R26">
-        <v>0.999937650474728</v>
+        <v>0.999999153364432</v>
       </c>
       <c r="S26">
-        <v>0.9992780938739069</v>
+        <v>0.9999901957835672</v>
       </c>
       <c r="T26">
-        <v>0.999937650474728</v>
+        <v>0.999999153364432</v>
       </c>
       <c r="U26">
-        <v>0.9998326615285623</v>
+        <v>0.9999977275744425</v>
       </c>
       <c r="V26">
-        <v>1.000165402121356</v>
+        <v>1.000002246648968</v>
       </c>
       <c r="W26">
-        <v>0.9998520768950263</v>
+        <v>0.9999979919011002</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.999760285765084</v>
+        <v>0.9916408172691078</v>
       </c>
       <c r="D27">
-        <v>0.9999520592742006</v>
+        <v>0.9983281631501749</v>
       </c>
       <c r="E27">
-        <v>1.000159821500623</v>
+        <v>1.005572790015801</v>
       </c>
       <c r="F27">
-        <v>1.000059921129255</v>
+        <v>1.002089797253161</v>
       </c>
       <c r="G27">
-        <v>0.999760285765084</v>
+        <v>0.9916408172691078</v>
       </c>
       <c r="H27">
-        <v>0.9999484877810199</v>
+        <v>0.9982038132842622</v>
       </c>
       <c r="I27">
-        <v>1.000088964444148</v>
+        <v>1.003102841354823</v>
       </c>
       <c r="J27">
-        <v>1.000159821500623</v>
+        <v>1.005572790015801</v>
       </c>
       <c r="K27">
-        <v>1.000159821500623</v>
+        <v>1.005572790015801</v>
       </c>
       <c r="L27">
-        <v>0.9998441428745041</v>
+        <v>0.9945648111066009</v>
       </c>
       <c r="M27">
-        <v>1.000059921129255</v>
+        <v>1.002089797253161</v>
       </c>
       <c r="N27">
-        <v>1.000159821500623</v>
+        <v>1.005572790015801</v>
       </c>
       <c r="O27">
-        <v>1.000059921129255</v>
+        <v>1.002089797253161</v>
       </c>
       <c r="P27">
-        <v>0.9999101034471697</v>
+        <v>0.9968653072611346</v>
       </c>
       <c r="Q27">
-        <v>1.000004204455138</v>
+        <v>1.000146805268712</v>
       </c>
       <c r="R27">
-        <v>0.9999933427983206</v>
+        <v>0.99976780151269</v>
       </c>
       <c r="S27">
-        <v>0.9999228982251198</v>
+        <v>0.9973114759355105</v>
       </c>
       <c r="T27">
-        <v>0.9999933427983206</v>
+        <v>0.99976780151269</v>
       </c>
       <c r="U27">
-        <v>0.9999821290439954</v>
+        <v>0.9993768044555831</v>
       </c>
       <c r="V27">
-        <v>1.000017667535321</v>
+        <v>1.000616001567626</v>
       </c>
       <c r="W27">
-        <v>0.9999842004872612</v>
+        <v>0.9994491038358866</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000241835665007</v>
+        <v>0.9977554399469895</v>
       </c>
       <c r="D28">
-        <v>1.000048372907389</v>
+        <v>0.9995510868658474</v>
       </c>
       <c r="E28">
-        <v>0.9998387793607175</v>
+        <v>1.001496364492529</v>
       </c>
       <c r="F28">
-        <v>0.9999395405983535</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="G28">
-        <v>1.000241835665007</v>
+        <v>0.9977554399469895</v>
       </c>
       <c r="H28">
-        <v>1.000051955169724</v>
+        <v>0.999517694690065</v>
       </c>
       <c r="I28">
-        <v>0.9999102243524455</v>
+        <v>1.000833158598477</v>
       </c>
       <c r="J28">
-        <v>0.9998387793607175</v>
+        <v>1.001496364492529</v>
       </c>
       <c r="K28">
-        <v>0.9998387793607175</v>
+        <v>1.001496364492529</v>
       </c>
       <c r="L28">
-        <v>1.000157261095115</v>
+        <v>0.9985405765969708</v>
       </c>
       <c r="M28">
-        <v>0.9999395405983535</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="N28">
-        <v>0.9998387793607175</v>
+        <v>1.001496364492529</v>
       </c>
       <c r="O28">
-        <v>0.9999395405983535</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="P28">
-        <v>1.00009068813168</v>
+        <v>0.9991582934658279</v>
       </c>
       <c r="Q28">
-        <v>0.9999957478840386</v>
+        <v>1.000039420837366</v>
       </c>
       <c r="R28">
-        <v>1.000006718541359</v>
+        <v>0.999937650474728</v>
       </c>
       <c r="S28">
-        <v>1.000077777144361</v>
+        <v>0.9992780938739069</v>
       </c>
       <c r="T28">
-        <v>1.000006718541359</v>
+        <v>0.999937650474728</v>
       </c>
       <c r="U28">
-        <v>1.00001802769845</v>
+        <v>0.9998326615285623</v>
       </c>
       <c r="V28">
-        <v>0.9999821780309037</v>
+        <v>1.000165402121356</v>
       </c>
       <c r="W28">
-        <v>1.000015938718388</v>
+        <v>0.9998520768950263</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.999760285765084</v>
+      </c>
+      <c r="D29">
+        <v>0.9999520592742006</v>
+      </c>
+      <c r="E29">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="F29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="G29">
+        <v>0.999760285765084</v>
+      </c>
+      <c r="H29">
+        <v>0.9999484877810199</v>
+      </c>
+      <c r="I29">
+        <v>1.000088964444148</v>
+      </c>
+      <c r="J29">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="K29">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="L29">
+        <v>0.9998441428745041</v>
+      </c>
+      <c r="M29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="N29">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="O29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="P29">
+        <v>0.9999101034471697</v>
+      </c>
+      <c r="Q29">
+        <v>1.000004204455138</v>
+      </c>
+      <c r="R29">
+        <v>0.9999933427983206</v>
+      </c>
+      <c r="S29">
+        <v>0.9999228982251198</v>
+      </c>
+      <c r="T29">
+        <v>0.9999933427983206</v>
+      </c>
+      <c r="U29">
+        <v>0.9999821290439954</v>
+      </c>
+      <c r="V29">
+        <v>1.000017667535321</v>
+      </c>
+      <c r="W29">
+        <v>0.9999842004872612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000241835665007</v>
+      </c>
+      <c r="D30">
+        <v>1.000048372907389</v>
+      </c>
+      <c r="E30">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="F30">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="G30">
+        <v>1.000241835665007</v>
+      </c>
+      <c r="H30">
+        <v>1.000051955169724</v>
+      </c>
+      <c r="I30">
+        <v>0.9999102243524455</v>
+      </c>
+      <c r="J30">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="K30">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="L30">
+        <v>1.000157261095115</v>
+      </c>
+      <c r="M30">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="N30">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="O30">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="P30">
+        <v>1.00009068813168</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999957478840386</v>
+      </c>
+      <c r="R30">
+        <v>1.000006718541359</v>
+      </c>
+      <c r="S30">
+        <v>1.000077777144361</v>
+      </c>
+      <c r="T30">
+        <v>1.000006718541359</v>
+      </c>
+      <c r="U30">
+        <v>1.00001802769845</v>
+      </c>
+      <c r="V30">
+        <v>0.9999821780309037</v>
+      </c>
+      <c r="W30">
+        <v>1.000015938718388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.001051726665297</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.000210355732125</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9992988581761483</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9997370731149802</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.001051726665297</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.000225976665174</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9996095940679871</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9992988581761483</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9992988581761483</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.000683852763844</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9997370731149802</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9992988581761483</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9997370731149802</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000394399890139</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9999815248900772</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000029219318809</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000338258815151</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000029219318809</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.0000784086554</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9999224985595496</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000069313787567</v>
       </c>
     </row>
